--- a/siscad/datos/horarios_debug.xlsx
+++ b/siscad/datos/horarios_debug.xlsx
@@ -558,7 +558,7 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>Alvaro Henry Mamani Aliaga</t>
+          <t>LINARES DELGADO, ROLANDO</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -615,7 +615,7 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>Alvaro Henry Mamani Aliaga</t>
+          <t>LINARES DELGADO, ROLANDO</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>Alvaro Henry Mamani Aliaga</t>
+          <t>LINARES DELGADO, ROLANDO</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -729,7 +729,7 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>Ana Maria Cuadros Valdivia</t>
+          <t>QUISPE CRUZ, MARCELA</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -786,7 +786,7 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>Ana Maria Cuadros Valdivia</t>
+          <t>QUISPE CRUZ, MARCELA</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -843,7 +843,7 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>Ana Maria Cuadros Valdivia</t>
+          <t>QUISPE CRUZ, MARCELA</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -900,7 +900,7 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>Benigno Erick Sanz Sanz</t>
+          <t>SARMIENTO CALISAYA, EDGAR</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -957,7 +957,7 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>Benigno Erick Sanz Sanz</t>
+          <t>SARMIENTO CALISAYA, EDGAR</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -1014,7 +1014,7 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>Cristian Jose Lopez Del Alamo</t>
+          <t>MAMAN ALIAGA, ALVARO HENRY</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -1071,7 +1071,7 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>Cristian Jose Lopez Del Alamo</t>
+          <t>MAMAN ALIAGA, ALVARO HENRY</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -1128,7 +1128,7 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>Edgar Sarmiento Calisaya</t>
+          <t>HINOJOSA CARDENAS, EDWARD</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
@@ -1185,7 +1185,7 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>Edgar Sarmiento Calisaya</t>
+          <t>HINOJOSA CARDENAS, EDWARD</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
@@ -1242,7 +1242,7 @@
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>Edgar Sarmiento Calisaya</t>
+          <t>HINOJOSA CARDENAS, EDWARD</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>Edgar Sarmiento Calisaya</t>
+          <t>HINOJOSA CARDENAS, EDWARD</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -1356,7 +1356,7 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>Edward Hinojosa Cardenas</t>
+          <t>FLORES QUISPE, ROXANA</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
@@ -1413,7 +1413,7 @@
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>Edward Hinojosa Cardenas</t>
+          <t>FLORES QUISPE, ROXANA</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -1470,7 +1470,7 @@
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>Edward Hinojosa Cardenas</t>
+          <t>FLORES QUISPE, ROXANA</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
@@ -1527,7 +1527,7 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>Edward Hinojosa Cardenas</t>
+          <t>FLORES QUISPE, ROXANA</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
@@ -1584,7 +1584,7 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>Eliana Maria Adriazola Herrera</t>
+          <t>VELAZCO PAREDES, YUBER ELMER</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
@@ -1641,7 +1641,7 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>Eliana Maria Adriazola Herrera</t>
+          <t>VELAZCO PAREDES, YUBER ELMER</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
@@ -1698,7 +1698,7 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>Erika Patricia Lazo Alarcon</t>
+          <t>VALDIVIA MALAGA, MARCO ANTONIO</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
@@ -1755,7 +1755,7 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>Erika Patricia Lazo Alarcon</t>
+          <t>VALDIVIA MALAGA, MARCO ANTONIO</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
@@ -1812,7 +1812,7 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>Franci Suni Lopez</t>
+          <t>CUADROS VALDIVIA, ANA MARIA</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
@@ -1869,7 +1869,7 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>Franci Suni Lopez</t>
+          <t>CUADROS VALDIVIA, ANA MARIA</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
@@ -1926,7 +1926,7 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>Jesus Heraclio Zuñiga Cueva</t>
+          <t>CARDENAS TALAVERA, ROLANDO JESUS</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
@@ -1983,7 +1983,7 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>Jesus Heraclio Zuñiga Cueva</t>
+          <t>CARDENAS TALAVERA, ROLANDO JESUS</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
@@ -2040,7 +2040,7 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>Jhon Franky Bernedo Gonzales</t>
+          <t>YARI RAMOS, YESSENIA DEYSI</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
@@ -2097,7 +2097,7 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>Juan Carlos Gutierrez Caceres</t>
+          <t>RAMOS LOVON, WILBER ROBERTO</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
@@ -2154,7 +2154,7 @@
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>Judith Hayde Cruz Torres</t>
+          <t>DELGADO BARRA, LUCY ANGELA</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
@@ -2211,7 +2211,7 @@
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>Judith Hayde Cruz Torres</t>
+          <t>DELGADO BARRA, LUCY ANGELA</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
@@ -2268,7 +2268,7 @@
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>Lucy Angela Delgado Barra</t>
+          <t>ZUÑIGA CUEVA, JESUS HERACLIO</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
@@ -2325,7 +2325,7 @@
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>Lucy Angela Delgado Barra</t>
+          <t>ZUÑIGA CUEVA, JESUS HERACLIO</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
@@ -2382,7 +2382,7 @@
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>Marcela Quispe Cruz</t>
+          <t>LAZO ALARCON, ERIKA PATRICIA</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
@@ -2439,7 +2439,7 @@
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>Marcela Quispe Cruz</t>
+          <t>LAZO ALARCON, ERIKA PATRICIA</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
@@ -2496,7 +2496,7 @@
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>Marco Antonio Valdivia Malaga</t>
+          <t>GUTIERREZ CACERES, JUAN CARLOS</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
@@ -2553,7 +2553,7 @@
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>Marco Antonio Valdivia Malaga</t>
+          <t>GUTIERREZ CACERES, JUAN CARLOS</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
@@ -2610,7 +2610,7 @@
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>Raquel Noelia Arredondo Choque</t>
+          <t>ADRIANZOLA HERRERA, ELIANA MARIA</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
@@ -2667,7 +2667,7 @@
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>Raquel Noelia Arredondo Choque</t>
+          <t>ADRIANZOLA HERRERA, ELIANA MARIA</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
@@ -2724,7 +2724,7 @@
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>Roxana Flores Quispe</t>
+          <t>CALLOAPAZA PARI, SONIA BENILDA</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
@@ -2781,7 +2781,7 @@
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>Roxana Flores Quispe</t>
+          <t>CALLOAPAZA PARI, SONIA BENILDA</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
@@ -2838,7 +2838,7 @@
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>Wilber Roberto Ramos Lovon</t>
+          <t>VILLAR GARNICA, ELVA EMELINA</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
@@ -2895,7 +2895,7 @@
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>Wilber Roberto Ramos Lovon</t>
+          <t>VILLAR GARNICA, ELVA EMELINA</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
@@ -2952,7 +2952,7 @@
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>Yessenia Deysi Yari Ramos</t>
+          <t>SUAREZ LOPEZ, ERNESTO MAURO</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
@@ -3009,7 +3009,7 @@
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>Yessenia Deysi Yari Ramos</t>
+          <t>SUAREZ LOPEZ, ERNESTO MAURO</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
@@ -3066,7 +3066,7 @@
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>Yuber Elmer Velazco Paredes</t>
+          <t>VERA SAMCHO, JULIO AUGUSTO</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
@@ -3123,7 +3123,7 @@
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>Yuber Elmer Velazco Paredes</t>
+          <t>VERA SAMCHO, JULIO AUGUSTO</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
@@ -3180,7 +3180,7 @@
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>Yuber Elmer Velazco Paredes</t>
+          <t>VERA SAMCHO, JULIO AUGUSTO</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
@@ -3237,7 +3237,7 @@
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>Alberto Garcia Garcia</t>
+          <t>ZAPANA HUMANI, MARY ELIZABETH</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
@@ -3294,7 +3294,7 @@
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>Alberto Garcia Garcia</t>
+          <t>ZAPANA HUMANI, MARY ELIZABETH</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
@@ -3351,7 +3351,7 @@
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>Alberto Garcia Garcia</t>
+          <t>ZAPANA HUMANI, MARY ELIZABETH</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
@@ -3408,7 +3408,7 @@
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>Alex Josue Florez Farfan</t>
+          <t>RODRIGUEZ GONZALEZ, PEDRO ALEX</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
@@ -3465,7 +3465,7 @@
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>Alvaro Ernesto Cuno Parari</t>
+          <t>MAYTA SALAS, ALEJANDRO RAFAEL</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
@@ -3522,7 +3522,7 @@
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>Angel Eusebio Pilco Escobedo</t>
+          <t>NUÑEZ NUÑEZ, MARIANNY</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
@@ -3579,7 +3579,7 @@
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>Angel Eusebio Pilco Escobedo</t>
+          <t>NUÑEZ NUÑEZ, MARIANNY</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
@@ -3636,7 +3636,7 @@
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>Anny Fresia Centeno Andia</t>
+          <t>CERECEDA QUINTAMILLA, YAKELIN VANESSA</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
@@ -3693,7 +3693,7 @@
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>Anny Fresia Centeno Andia</t>
+          <t>CERECEDA QUINTAMILLA, YAKELIN VANESSA</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
@@ -3750,7 +3750,7 @@
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>Brayan Adolfo Mujica Guzman</t>
+          <t>PEÑALVA SUCA, LORENZO JESUS</t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
@@ -3807,7 +3807,7 @@
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>Brayan Adolfo Mujica Guzman</t>
+          <t>PEÑALVA SUCA, LORENZO JESUS</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
@@ -3864,7 +3864,7 @@
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>Edson Francisco Luque Mamani</t>
+          <t>MALDONADO QUISPE, PERCY</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
@@ -3921,7 +3921,7 @@
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>Edson Francisco Luque Mamani</t>
+          <t>MALDONADO QUISPE, PERCY</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
@@ -3978,7 +3978,7 @@
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>Eliseo Daniel Velasquez Condori</t>
+          <t>PAZ VALDERBAMA, ALFREDO</t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
@@ -4035,7 +4035,7 @@
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>Eliseo Daniel Velasquez Condori</t>
+          <t>PAZ VALDERBAMA, ALFREDO</t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
@@ -4092,7 +4092,7 @@
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>Erech Ordoñez Ramos</t>
+          <t>MESTAS CHAVEZ, ROGER EDWAR</t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
@@ -4149,7 +4149,7 @@
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>Erech Ordoñez Ramos</t>
+          <t>MESTAS CHAVEZ, ROGER EDWAR</t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
@@ -4206,7 +4206,7 @@
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>Evelyn Perez Cervantes</t>
+          <t>VIZA HUAYLLASO, JUDID CARINA</t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
@@ -4263,7 +4263,7 @@
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>Evelyn Perez Cervantes</t>
+          <t>VIZA HUAYLLASO, JUDID CARINA</t>
         </is>
       </c>
       <c r="O67" t="inlineStr">
@@ -4320,7 +4320,7 @@
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>Franklin Luis Antonio Cruz Gamero</t>
+          <t>OLANDA VELASQUEZ, BERTHA</t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
@@ -4377,7 +4377,7 @@
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>Franklin Luis Antonio Cruz Gamero</t>
+          <t>OLANDA VELASQUEZ, BERTHA</t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
@@ -4434,7 +4434,7 @@
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>Grover Enrique Castro Guzman</t>
+          <t>QUISPE MAMANI, ANTONIA</t>
         </is>
       </c>
       <c r="O70" t="inlineStr">
@@ -4491,7 +4491,7 @@
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>Grover Enrique Castro Guzman</t>
+          <t>QUISPE MAMANI, ANTONIA</t>
         </is>
       </c>
       <c r="O71" t="inlineStr">
@@ -4548,7 +4548,7 @@
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>Guadalupe Del Rosario Quispe Saji</t>
+          <t>LUQUE FERNANDEZ, CESAR RAUL</t>
         </is>
       </c>
       <c r="O72" t="inlineStr">
@@ -4605,7 +4605,7 @@
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>Guadalupe Del Rosario Quispe Saji</t>
+          <t>LUQUE FERNANDEZ, CESAR RAUL</t>
         </is>
       </c>
       <c r="O73" t="inlineStr">
@@ -4662,7 +4662,7 @@
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>Jesus Enrique Achire Quispe</t>
+          <t>AQUISE ESCOBEDO, SERGIO MOISES</t>
         </is>
       </c>
       <c r="O74" t="inlineStr">
@@ -4719,7 +4719,7 @@
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>Jesus Enrique Achire Quispe</t>
+          <t>AQUISE ESCOBEDO, SERGIO MOISES</t>
         </is>
       </c>
       <c r="O75" t="inlineStr">
@@ -4776,7 +4776,7 @@
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>Jorge Antonio Ihue Umire</t>
+          <t>ROQUE ROJI, ELIANA</t>
         </is>
       </c>
       <c r="O76" t="inlineStr">
@@ -4833,7 +4833,7 @@
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>Jorge Antonio Ihue Umire</t>
+          <t>ROQUE ROJI, ELIANA</t>
         </is>
       </c>
       <c r="O77" t="inlineStr">
@@ -4890,7 +4890,7 @@
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>Juan Carlos Zuñiga Torres</t>
+          <t>CONDORI ROCA, WILLY</t>
         </is>
       </c>
       <c r="O78" t="inlineStr">
@@ -4947,7 +4947,7 @@
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>Julio Raul Medina Cruz</t>
+          <t>MORALES MOYA, ADHA</t>
         </is>
       </c>
       <c r="O79" t="inlineStr">
@@ -5004,7 +5004,7 @@
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>Marina Jeaneth Machicao Justo</t>
+          <t>HANCO ANCORI, RICARDO JAVIER</t>
         </is>
       </c>
       <c r="O80" t="inlineStr">
@@ -5061,7 +5061,7 @@
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>Marina Jeaneth Machicao Justo</t>
+          <t>HANCO ANCORI, RICARDO JAVIER</t>
         </is>
       </c>
       <c r="O81" t="inlineStr">
@@ -5118,7 +5118,7 @@
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>Marisol Cristel Galarza Flores</t>
+          <t>CANO MAMANI, ADELA LUISA</t>
         </is>
       </c>
       <c r="O82" t="inlineStr">
@@ -5175,7 +5175,7 @@
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>Marisol Cristel Galarza Flores</t>
+          <t>CANO MAMANI, ADELA LUISA</t>
         </is>
       </c>
       <c r="O83" t="inlineStr">
@@ -5232,7 +5232,7 @@
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>Milton Raul Condori Fernandez</t>
+          <t>CABANA HANCO, WILSON RICARDO</t>
         </is>
       </c>
       <c r="O84" t="inlineStr">
@@ -5289,7 +5289,7 @@
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>Milton Raul Condori Fernandez</t>
+          <t>CABANA HANCO, WILSON RICARDO</t>
         </is>
       </c>
       <c r="O85" t="inlineStr">
@@ -5346,7 +5346,7 @@
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>Pablo Cesar Calcina Ccori</t>
+          <t>VELAZCO COACYAHUILLCA, YSIDRO</t>
         </is>
       </c>
       <c r="O86" t="inlineStr">
@@ -5403,7 +5403,7 @@
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>Pablo Cesar Calcina Ccori</t>
+          <t>VELAZCO COACYAHUILLCA, YSIDRO</t>
         </is>
       </c>
       <c r="O87" t="inlineStr">
@@ -5460,7 +5460,7 @@
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>Percy Antonio Ticona Centeno</t>
+          <t>GUTIERREZ RODRIGUEZ, EDDY AUGUSTO</t>
         </is>
       </c>
       <c r="O88" t="inlineStr">
@@ -5517,7 +5517,7 @@
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>Reynaldo Ricardo Quispe Infantes</t>
+          <t>VELASQUEZ CONDORI, ELISEO DANIEL</t>
         </is>
       </c>
       <c r="O89" t="inlineStr">
@@ -5574,7 +5574,7 @@
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t>Rolando Jesus Cardenas Talavera</t>
+          <t>CACERES ANCO, ROBERTO</t>
         </is>
       </c>
       <c r="O90" t="inlineStr">
@@ -5631,7 +5631,7 @@
       </c>
       <c r="N91" t="inlineStr">
         <is>
-          <t>Rolando Jesus Cardenas Talavera</t>
+          <t>CACERES ANCO, ROBERTO</t>
         </is>
       </c>
       <c r="O91" t="inlineStr">
@@ -5688,7 +5688,7 @@
       </c>
       <c r="N92" t="inlineStr">
         <is>
-          <t>Rolando Linares Delgado</t>
+          <t>JACOBE AGUIRRE, ROCIO</t>
         </is>
       </c>
       <c r="O92" t="inlineStr">
@@ -5745,7 +5745,7 @@
       </c>
       <c r="N93" t="inlineStr">
         <is>
-          <t>Rolando Linares Delgado</t>
+          <t>JACOBE AGUIRRE, ROCIO</t>
         </is>
       </c>
       <c r="O93" t="inlineStr">
@@ -5802,7 +5802,7 @@
       </c>
       <c r="N94" t="inlineStr">
         <is>
-          <t>Ronny Ivan Gonzales Medina</t>
+          <t>PILCO ANDIA, CARLOTA CRISTINA</t>
         </is>
       </c>
       <c r="O94" t="inlineStr">
@@ -5859,7 +5859,7 @@
       </c>
       <c r="N95" t="inlineStr">
         <is>
-          <t>Yesica Karin Granda Lazaro</t>
+          <t>OSORIO MENDOZA DE MONTEZA, NADJA CATALINA</t>
         </is>
       </c>
       <c r="O95" t="inlineStr">
@@ -5916,7 +5916,7 @@
       </c>
       <c r="N96" t="inlineStr">
         <is>
-          <t>Alvaro Henry Mamani Aliaga</t>
+          <t>ZEBALLOS RAMIREZ, PIAR ELIZABETH</t>
         </is>
       </c>
       <c r="O96" t="inlineStr">
@@ -5973,7 +5973,7 @@
       </c>
       <c r="N97" t="inlineStr">
         <is>
-          <t>Ana Maria Cuadros Valdivia</t>
+          <t>MESTAS VALDIVIA, JOSE CARLOS</t>
         </is>
       </c>
       <c r="O97" t="inlineStr">
@@ -6030,7 +6030,7 @@
       </c>
       <c r="N98" t="inlineStr">
         <is>
-          <t>Benigno Erick Sanz Sanz</t>
+          <t>MONROY CARNERO, DANIEL JESUS</t>
         </is>
       </c>
       <c r="O98" t="inlineStr">
@@ -6087,7 +6087,7 @@
       </c>
       <c r="N99" t="inlineStr">
         <is>
-          <t>Benigno Erick Sanz Sanz</t>
+          <t>MONROY CARNERO, DANIEL JESUS</t>
         </is>
       </c>
       <c r="O99" t="inlineStr">
@@ -6144,7 +6144,7 @@
       </c>
       <c r="N100" t="inlineStr">
         <is>
-          <t>Cristian Jose Lopez Del Alamo</t>
+          <t>TACCA QUISPE, LORENZO WILBERT</t>
         </is>
       </c>
       <c r="O100" t="inlineStr">
@@ -6201,7 +6201,7 @@
       </c>
       <c r="N101" t="inlineStr">
         <is>
-          <t>Cristian Jose Lopez Del Alamo</t>
+          <t>TACCA QUISPE, LORENZO WILBERT</t>
         </is>
       </c>
       <c r="O101" t="inlineStr">
@@ -6258,7 +6258,7 @@
       </c>
       <c r="N102" t="inlineStr">
         <is>
-          <t>Edgar Sarmiento Calisaya</t>
+          <t>TORRES GONZALES, SELENE BELEN</t>
         </is>
       </c>
       <c r="O102" t="inlineStr">
@@ -6315,7 +6315,7 @@
       </c>
       <c r="N103" t="inlineStr">
         <is>
-          <t>Edgar Sarmiento Calisaya</t>
+          <t>TORRES GONZALES, SELENE BELEN</t>
         </is>
       </c>
       <c r="O103" t="inlineStr">
@@ -6372,7 +6372,7 @@
       </c>
       <c r="N104" t="inlineStr">
         <is>
-          <t>Edward Hinojosa Cardenas</t>
+          <t>NUÑEZ GUZMAN, ROXANA LUISA</t>
         </is>
       </c>
       <c r="O104" t="inlineStr">
@@ -6429,7 +6429,7 @@
       </c>
       <c r="N105" t="inlineStr">
         <is>
-          <t>Edward Hinojosa Cardenas</t>
+          <t>NUÑEZ GUZMAN, ROXANA LUISA</t>
         </is>
       </c>
       <c r="O105" t="inlineStr">
@@ -6486,7 +6486,7 @@
       </c>
       <c r="N106" t="inlineStr">
         <is>
-          <t>Eliana Maria Adriazola Herrera</t>
+          <t>CALLO HUAYNA, JENNY LAURA</t>
         </is>
       </c>
       <c r="O106" t="inlineStr">
@@ -6543,7 +6543,7 @@
       </c>
       <c r="N107" t="inlineStr">
         <is>
-          <t>Eliana Maria Adriazola Herrera</t>
+          <t>CALLO HUAYNA, JENNY LAURA</t>
         </is>
       </c>
       <c r="O107" t="inlineStr">
@@ -6600,7 +6600,7 @@
       </c>
       <c r="N108" t="inlineStr">
         <is>
-          <t>Erika Patricia Lazo Alarcon</t>
+          <t>GARCIA QUISPE, WILLY ENRIQUE</t>
         </is>
       </c>
       <c r="O108" t="inlineStr">
@@ -6657,7 +6657,7 @@
       </c>
       <c r="N109" t="inlineStr">
         <is>
-          <t>Erika Patricia Lazo Alarcon</t>
+          <t>GARCIA QUISPE, WILLY ENRIQUE</t>
         </is>
       </c>
       <c r="O109" t="inlineStr">
@@ -6714,7 +6714,7 @@
       </c>
       <c r="N110" t="inlineStr">
         <is>
-          <t>Franci Suni Lopez</t>
+          <t>CHIRINOS TOVAR, KARINA ROGELIO</t>
         </is>
       </c>
       <c r="O110" t="inlineStr">
@@ -6771,7 +6771,7 @@
       </c>
       <c r="N111" t="inlineStr">
         <is>
-          <t>Jesus Heraclio Zuñiga Cueva</t>
+          <t>CACERES CAERO, FELIX</t>
         </is>
       </c>
       <c r="O111" t="inlineStr">
@@ -6828,7 +6828,7 @@
       </c>
       <c r="N112" t="inlineStr">
         <is>
-          <t>Jhon Franky Bernedo Gonzales</t>
+          <t>BUSTAMANTE LOPEZ, TEIS LARISA</t>
         </is>
       </c>
       <c r="O112" t="inlineStr">
@@ -6885,7 +6885,7 @@
       </c>
       <c r="N113" t="inlineStr">
         <is>
-          <t>Jhon Franky Bernedo Gonzales</t>
+          <t>BUSTAMANTE LOPEZ, TEIS LARISA</t>
         </is>
       </c>
       <c r="O113" t="inlineStr">
@@ -6942,7 +6942,7 @@
       </c>
       <c r="N114" t="inlineStr">
         <is>
-          <t>Juan Carlos Gutierrez Caceres</t>
+          <t>CORDOVA MARTINEZ, MARIA DEL CARMEN</t>
         </is>
       </c>
       <c r="O114" t="inlineStr">
@@ -6999,7 +6999,7 @@
       </c>
       <c r="N115" t="inlineStr">
         <is>
-          <t>Juan Carlos Gutierrez Caceres</t>
+          <t>CORDOVA MARTINEZ, MARIA DEL CARMEN</t>
         </is>
       </c>
       <c r="O115" t="inlineStr">
@@ -7056,7 +7056,7 @@
       </c>
       <c r="N116" t="inlineStr">
         <is>
-          <t>Judith Hayde Cruz Torres</t>
+          <t>QUISPE MELON, MILAGROS</t>
         </is>
       </c>
       <c r="O116" t="inlineStr">
@@ -7113,7 +7113,7 @@
       </c>
       <c r="N117" t="inlineStr">
         <is>
-          <t>Judith Hayde Cruz Torres</t>
+          <t>QUISPE MELON, MILAGROS</t>
         </is>
       </c>
       <c r="O117" t="inlineStr">
@@ -7170,7 +7170,7 @@
       </c>
       <c r="N118" t="inlineStr">
         <is>
-          <t>Lucy Angela Delgado Barra</t>
+          <t>CAHUANA MONTERO, GARY MARY</t>
         </is>
       </c>
       <c r="O118" t="inlineStr">
@@ -7227,7 +7227,7 @@
       </c>
       <c r="N119" t="inlineStr">
         <is>
-          <t>Lucy Angela Delgado Barra</t>
+          <t>CAHUANA MONTERO, GARY MARY</t>
         </is>
       </c>
       <c r="O119" t="inlineStr">
@@ -7284,7 +7284,7 @@
       </c>
       <c r="N120" t="inlineStr">
         <is>
-          <t>Marcela Quispe Cruz</t>
+          <t>LINARES DELGADO, ROLANDO</t>
         </is>
       </c>
       <c r="O120" t="inlineStr">
@@ -7341,7 +7341,7 @@
       </c>
       <c r="N121" t="inlineStr">
         <is>
-          <t>Marcela Quispe Cruz</t>
+          <t>LINARES DELGADO, ROLANDO</t>
         </is>
       </c>
       <c r="O121" t="inlineStr">
@@ -7398,7 +7398,7 @@
       </c>
       <c r="N122" t="inlineStr">
         <is>
-          <t>Marco Antonio Valdivia Malaga</t>
+          <t>QUISPE CRUZ, MARCELA</t>
         </is>
       </c>
       <c r="O122" t="inlineStr">
@@ -7455,7 +7455,7 @@
       </c>
       <c r="N123" t="inlineStr">
         <is>
-          <t>Marco Antonio Valdivia Malaga</t>
+          <t>QUISPE CRUZ, MARCELA</t>
         </is>
       </c>
       <c r="O123" t="inlineStr">
@@ -7512,7 +7512,7 @@
       </c>
       <c r="N124" t="inlineStr">
         <is>
-          <t>Raquel Noelia Arredondo Choque</t>
+          <t>SARMIENTO CALISAYA, EDGAR</t>
         </is>
       </c>
       <c r="O124" t="inlineStr">
@@ -7569,7 +7569,7 @@
       </c>
       <c r="N125" t="inlineStr">
         <is>
-          <t>Raquel Noelia Arredondo Choque</t>
+          <t>SARMIENTO CALISAYA, EDGAR</t>
         </is>
       </c>
       <c r="O125" t="inlineStr">
@@ -7626,7 +7626,7 @@
       </c>
       <c r="N126" t="inlineStr">
         <is>
-          <t>Raquel Noelia Arredondo Choque</t>
+          <t>SARMIENTO CALISAYA, EDGAR</t>
         </is>
       </c>
       <c r="O126" t="inlineStr">
@@ -7683,7 +7683,7 @@
       </c>
       <c r="N127" t="inlineStr">
         <is>
-          <t>Roxana Flores Quispe</t>
+          <t>MAMAN ALIAGA, ALVARO HENRY</t>
         </is>
       </c>
       <c r="O127" t="inlineStr">
@@ -7740,7 +7740,7 @@
       </c>
       <c r="N128" t="inlineStr">
         <is>
-          <t>Roxana Flores Quispe</t>
+          <t>MAMAN ALIAGA, ALVARO HENRY</t>
         </is>
       </c>
       <c r="O128" t="inlineStr">
@@ -7797,7 +7797,7 @@
       </c>
       <c r="N129" t="inlineStr">
         <is>
-          <t>Roxana Flores Quispe</t>
+          <t>MAMAN ALIAGA, ALVARO HENRY</t>
         </is>
       </c>
       <c r="O129" t="inlineStr">
@@ -7854,7 +7854,7 @@
       </c>
       <c r="N130" t="inlineStr">
         <is>
-          <t>Alvaro Henry Mamani Aliaga</t>
+          <t>LINARES DELGADO, ROLANDO</t>
         </is>
       </c>
       <c r="O130" t="inlineStr">
@@ -7911,7 +7911,7 @@
       </c>
       <c r="N131" t="inlineStr">
         <is>
-          <t>Alvaro Henry Mamani Aliaga</t>
+          <t>LINARES DELGADO, ROLANDO</t>
         </is>
       </c>
       <c r="O131" t="inlineStr">
@@ -7968,7 +7968,7 @@
       </c>
       <c r="N132" t="inlineStr">
         <is>
-          <t>Ana Maria Cuadros Valdivia</t>
+          <t>QUISPE CRUZ, MARCELA</t>
         </is>
       </c>
       <c r="O132" t="inlineStr">
@@ -8025,7 +8025,7 @@
       </c>
       <c r="N133" t="inlineStr">
         <is>
-          <t>Ana Maria Cuadros Valdivia</t>
+          <t>QUISPE CRUZ, MARCELA</t>
         </is>
       </c>
       <c r="O133" t="inlineStr">
@@ -8082,7 +8082,7 @@
       </c>
       <c r="N134" t="inlineStr">
         <is>
-          <t>Benigno Erick Sanz Sanz</t>
+          <t>SARMIENTO CALISAYA, EDGAR</t>
         </is>
       </c>
       <c r="O134" t="inlineStr">
@@ -8139,7 +8139,7 @@
       </c>
       <c r="N135" t="inlineStr">
         <is>
-          <t>Benigno Erick Sanz Sanz</t>
+          <t>SARMIENTO CALISAYA, EDGAR</t>
         </is>
       </c>
       <c r="O135" t="inlineStr">
@@ -8196,7 +8196,7 @@
       </c>
       <c r="N136" t="inlineStr">
         <is>
-          <t>Cristian Jose Lopez Del Alamo</t>
+          <t>MAMAN ALIAGA, ALVARO HENRY</t>
         </is>
       </c>
       <c r="O136" t="inlineStr">
@@ -8253,7 +8253,7 @@
       </c>
       <c r="N137" t="inlineStr">
         <is>
-          <t>Cristian Jose Lopez Del Alamo</t>
+          <t>MAMAN ALIAGA, ALVARO HENRY</t>
         </is>
       </c>
       <c r="O137" t="inlineStr">
@@ -8310,7 +8310,7 @@
       </c>
       <c r="N138" t="inlineStr">
         <is>
-          <t>Edgar Sarmiento Calisaya</t>
+          <t>HINOJOSA CARDENAS, EDWARD</t>
         </is>
       </c>
       <c r="O138" t="inlineStr">
@@ -8367,7 +8367,7 @@
       </c>
       <c r="N139" t="inlineStr">
         <is>
-          <t>Edgar Sarmiento Calisaya</t>
+          <t>HINOJOSA CARDENAS, EDWARD</t>
         </is>
       </c>
       <c r="O139" t="inlineStr">
@@ -8424,7 +8424,7 @@
       </c>
       <c r="N140" t="inlineStr">
         <is>
-          <t>Edward Hinojosa Cardenas</t>
+          <t>FLORES QUISPE, ROXANA</t>
         </is>
       </c>
       <c r="O140" t="inlineStr">
@@ -8481,7 +8481,7 @@
       </c>
       <c r="N141" t="inlineStr">
         <is>
-          <t>Edward Hinojosa Cardenas</t>
+          <t>FLORES QUISPE, ROXANA</t>
         </is>
       </c>
       <c r="O141" t="inlineStr">
@@ -8538,7 +8538,7 @@
       </c>
       <c r="N142" t="inlineStr">
         <is>
-          <t>Eliana Maria Adriazola Herrera</t>
+          <t>VELAZCO PAREDES, YUBER ELMER</t>
         </is>
       </c>
       <c r="O142" t="inlineStr">
@@ -8595,7 +8595,7 @@
       </c>
       <c r="N143" t="inlineStr">
         <is>
-          <t>Eliana Maria Adriazola Herrera</t>
+          <t>VELAZCO PAREDES, YUBER ELMER</t>
         </is>
       </c>
       <c r="O143" t="inlineStr">
@@ -8652,7 +8652,7 @@
       </c>
       <c r="N144" t="inlineStr">
         <is>
-          <t>Erika Patricia Lazo Alarcon</t>
+          <t>VALDIVIA MALAGA, MARCO ANTONIO</t>
         </is>
       </c>
       <c r="O144" t="inlineStr">
@@ -8709,7 +8709,7 @@
       </c>
       <c r="N145" t="inlineStr">
         <is>
-          <t>Erika Patricia Lazo Alarcon</t>
+          <t>VALDIVIA MALAGA, MARCO ANTONIO</t>
         </is>
       </c>
       <c r="O145" t="inlineStr">
@@ -8766,7 +8766,7 @@
       </c>
       <c r="N146" t="inlineStr">
         <is>
-          <t>Franci Suni Lopez</t>
+          <t>CUADROS VALDIVIA, ANA MARIA</t>
         </is>
       </c>
       <c r="O146" t="inlineStr">
@@ -8823,7 +8823,7 @@
       </c>
       <c r="N147" t="inlineStr">
         <is>
-          <t>Franci Suni Lopez</t>
+          <t>CUADROS VALDIVIA, ANA MARIA</t>
         </is>
       </c>
       <c r="O147" t="inlineStr">
@@ -8880,7 +8880,7 @@
       </c>
       <c r="N148" t="inlineStr">
         <is>
-          <t>Franci Suni Lopez</t>
+          <t>CUADROS VALDIVIA, ANA MARIA</t>
         </is>
       </c>
       <c r="O148" t="inlineStr">
@@ -8937,7 +8937,7 @@
       </c>
       <c r="N149" t="inlineStr">
         <is>
-          <t>Franci Suni Lopez</t>
+          <t>CUADROS VALDIVIA, ANA MARIA</t>
         </is>
       </c>
       <c r="O149" t="inlineStr">
@@ -8994,7 +8994,7 @@
       </c>
       <c r="N150" t="inlineStr">
         <is>
-          <t>Jesus Heraclio Zuñiga Cueva</t>
+          <t>CARDENAS TALAVERA, ROLANDO JESUS</t>
         </is>
       </c>
       <c r="O150" t="inlineStr">
@@ -9051,7 +9051,7 @@
       </c>
       <c r="N151" t="inlineStr">
         <is>
-          <t>Jesus Heraclio Zuñiga Cueva</t>
+          <t>CARDENAS TALAVERA, ROLANDO JESUS</t>
         </is>
       </c>
       <c r="O151" t="inlineStr">
@@ -9108,7 +9108,7 @@
       </c>
       <c r="N152" t="inlineStr">
         <is>
-          <t>Jesus Heraclio Zuñiga Cueva</t>
+          <t>CARDENAS TALAVERA, ROLANDO JESUS</t>
         </is>
       </c>
       <c r="O152" t="inlineStr">
@@ -9165,7 +9165,7 @@
       </c>
       <c r="N153" t="inlineStr">
         <is>
-          <t>Jesus Heraclio Zuñiga Cueva</t>
+          <t>CARDENAS TALAVERA, ROLANDO JESUS</t>
         </is>
       </c>
       <c r="O153" t="inlineStr">
@@ -9222,7 +9222,7 @@
       </c>
       <c r="N154" t="inlineStr">
         <is>
-          <t>Jhon Franky Bernedo Gonzales</t>
+          <t>YARI RAMOS, YESSENIA DEYSI</t>
         </is>
       </c>
       <c r="O154" t="inlineStr">
@@ -9279,7 +9279,7 @@
       </c>
       <c r="N155" t="inlineStr">
         <is>
-          <t>Jhon Franky Bernedo Gonzales</t>
+          <t>YARI RAMOS, YESSENIA DEYSI</t>
         </is>
       </c>
       <c r="O155" t="inlineStr">
@@ -9336,7 +9336,7 @@
       </c>
       <c r="N156" t="inlineStr">
         <is>
-          <t>Juan Carlos Gutierrez Caceres</t>
+          <t>RAMOS LOVON, WILBER ROBERTO</t>
         </is>
       </c>
       <c r="O156" t="inlineStr">
@@ -9393,7 +9393,7 @@
       </c>
       <c r="N157" t="inlineStr">
         <is>
-          <t>Juan Carlos Gutierrez Caceres</t>
+          <t>RAMOS LOVON, WILBER ROBERTO</t>
         </is>
       </c>
       <c r="O157" t="inlineStr">
@@ -9450,7 +9450,7 @@
       </c>
       <c r="N158" t="inlineStr">
         <is>
-          <t>Judith Hayde Cruz Torres</t>
+          <t>DELGADO BARRA, LUCY ANGELA</t>
         </is>
       </c>
       <c r="O158" t="inlineStr">
@@ -9507,7 +9507,7 @@
       </c>
       <c r="N159" t="inlineStr">
         <is>
-          <t>Judith Hayde Cruz Torres</t>
+          <t>DELGADO BARRA, LUCY ANGELA</t>
         </is>
       </c>
       <c r="O159" t="inlineStr">
@@ -9564,7 +9564,7 @@
       </c>
       <c r="N160" t="inlineStr">
         <is>
-          <t>Lucy Angela Delgado Barra</t>
+          <t>ZUÑIGA CUEVA, JESUS HERACLIO</t>
         </is>
       </c>
       <c r="O160" t="inlineStr">
@@ -9621,7 +9621,7 @@
       </c>
       <c r="N161" t="inlineStr">
         <is>
-          <t>Lucy Angela Delgado Barra</t>
+          <t>ZUÑIGA CUEVA, JESUS HERACLIO</t>
         </is>
       </c>
       <c r="O161" t="inlineStr">
@@ -9678,7 +9678,7 @@
       </c>
       <c r="N162" t="inlineStr">
         <is>
-          <t>Marcela Quispe Cruz</t>
+          <t>LAZO ALARCON, ERIKA PATRICIA</t>
         </is>
       </c>
       <c r="O162" t="inlineStr">
@@ -9735,7 +9735,7 @@
       </c>
       <c r="N163" t="inlineStr">
         <is>
-          <t>Marcela Quispe Cruz</t>
+          <t>LAZO ALARCON, ERIKA PATRICIA</t>
         </is>
       </c>
       <c r="O163" t="inlineStr">
@@ -9792,7 +9792,7 @@
       </c>
       <c r="N164" t="inlineStr">
         <is>
-          <t>Marco Antonio Valdivia Malaga</t>
+          <t>GUTIERREZ CACERES, JUAN CARLOS</t>
         </is>
       </c>
       <c r="O164" t="inlineStr">
@@ -9849,7 +9849,7 @@
       </c>
       <c r="N165" t="inlineStr">
         <is>
-          <t>Marco Antonio Valdivia Malaga</t>
+          <t>GUTIERREZ CACERES, JUAN CARLOS</t>
         </is>
       </c>
       <c r="O165" t="inlineStr">
@@ -9906,7 +9906,7 @@
       </c>
       <c r="N166" t="inlineStr">
         <is>
-          <t>Wilber Roberto Ramos Lovon</t>
+          <t>VILLAR GARNICA, ELVA EMELINA</t>
         </is>
       </c>
       <c r="O166" t="inlineStr">
@@ -9963,7 +9963,7 @@
       </c>
       <c r="N167" t="inlineStr">
         <is>
-          <t>Wilber Roberto Ramos Lovon</t>
+          <t>VILLAR GARNICA, ELVA EMELINA</t>
         </is>
       </c>
       <c r="O167" t="inlineStr">
@@ -10020,7 +10020,7 @@
       </c>
       <c r="N168" t="inlineStr">
         <is>
-          <t>Yessenia Deysi Yari Ramos</t>
+          <t>SUAREZ LOPEZ, ERNESTO MAURO</t>
         </is>
       </c>
       <c r="O168" t="inlineStr">
@@ -10077,7 +10077,7 @@
       </c>
       <c r="N169" t="inlineStr">
         <is>
-          <t>Yessenia Deysi Yari Ramos</t>
+          <t>SUAREZ LOPEZ, ERNESTO MAURO</t>
         </is>
       </c>
       <c r="O169" t="inlineStr">
@@ -10134,7 +10134,7 @@
       </c>
       <c r="N170" t="inlineStr">
         <is>
-          <t>Yuber Elmer Velazco Paredes</t>
+          <t>VERA SAMCHO, JULIO AUGUSTO</t>
         </is>
       </c>
       <c r="O170" t="inlineStr">
@@ -10191,7 +10191,7 @@
       </c>
       <c r="N171" t="inlineStr">
         <is>
-          <t>Yuber Elmer Velazco Paredes</t>
+          <t>VERA SAMCHO, JULIO AUGUSTO</t>
         </is>
       </c>
       <c r="O171" t="inlineStr">
@@ -10248,7 +10248,7 @@
       </c>
       <c r="N172" t="inlineStr">
         <is>
-          <t>Alberto Garcia Garcia</t>
+          <t>ZAPANA HUMANI, MARY ELIZABETH</t>
         </is>
       </c>
       <c r="O172" t="inlineStr">
@@ -10305,7 +10305,7 @@
       </c>
       <c r="N173" t="inlineStr">
         <is>
-          <t>Alberto Garcia Garcia</t>
+          <t>ZAPANA HUMANI, MARY ELIZABETH</t>
         </is>
       </c>
       <c r="O173" t="inlineStr">
@@ -10362,7 +10362,7 @@
       </c>
       <c r="N174" t="inlineStr">
         <is>
-          <t>Alex Josue Florez Farfan</t>
+          <t>RODRIGUEZ GONZALEZ, PEDRO ALEX</t>
         </is>
       </c>
       <c r="O174" t="inlineStr">
@@ -10419,7 +10419,7 @@
       </c>
       <c r="N175" t="inlineStr">
         <is>
-          <t>Alex Josue Florez Farfan</t>
+          <t>RODRIGUEZ GONZALEZ, PEDRO ALEX</t>
         </is>
       </c>
       <c r="O175" t="inlineStr">
@@ -10476,7 +10476,7 @@
       </c>
       <c r="N176" t="inlineStr">
         <is>
-          <t>Alvaro Ernesto Cuno Parari</t>
+          <t>MAYTA SALAS, ALEJANDRO RAFAEL</t>
         </is>
       </c>
       <c r="O176" t="inlineStr">
@@ -10533,7 +10533,7 @@
       </c>
       <c r="N177" t="inlineStr">
         <is>
-          <t>Alvaro Ernesto Cuno Parari</t>
+          <t>MAYTA SALAS, ALEJANDRO RAFAEL</t>
         </is>
       </c>
       <c r="O177" t="inlineStr">
@@ -10590,7 +10590,7 @@
       </c>
       <c r="N178" t="inlineStr">
         <is>
-          <t>Angel Eusebio Pilco Escobedo</t>
+          <t>NUÑEZ NUÑEZ, MARIANNY</t>
         </is>
       </c>
       <c r="O178" t="inlineStr">
@@ -10647,7 +10647,7 @@
       </c>
       <c r="N179" t="inlineStr">
         <is>
-          <t>Angel Eusebio Pilco Escobedo</t>
+          <t>NUÑEZ NUÑEZ, MARIANNY</t>
         </is>
       </c>
       <c r="O179" t="inlineStr">
@@ -10704,7 +10704,7 @@
       </c>
       <c r="N180" t="inlineStr">
         <is>
-          <t>Angel Eusebio Pilco Escobedo</t>
+          <t>NUÑEZ NUÑEZ, MARIANNY</t>
         </is>
       </c>
       <c r="O180" t="inlineStr">
@@ -10761,7 +10761,7 @@
       </c>
       <c r="N181" t="inlineStr">
         <is>
-          <t>Angel Eusebio Pilco Escobedo</t>
+          <t>NUÑEZ NUÑEZ, MARIANNY</t>
         </is>
       </c>
       <c r="O181" t="inlineStr">
@@ -10818,7 +10818,7 @@
       </c>
       <c r="N182" t="inlineStr">
         <is>
-          <t>Angel Eusebio Pilco Escobedo</t>
+          <t>NUÑEZ NUÑEZ, MARIANNY</t>
         </is>
       </c>
       <c r="O182" t="inlineStr">
@@ -10875,7 +10875,7 @@
       </c>
       <c r="N183" t="inlineStr">
         <is>
-          <t>Angel Eusebio Pilco Escobedo</t>
+          <t>NUÑEZ NUÑEZ, MARIANNY</t>
         </is>
       </c>
       <c r="O183" t="inlineStr">
@@ -10932,7 +10932,7 @@
       </c>
       <c r="N184" t="inlineStr">
         <is>
-          <t>Anny Fresia Centeno Andia</t>
+          <t>CERECEDA QUINTAMILLA, YAKELIN VANESSA</t>
         </is>
       </c>
       <c r="O184" t="inlineStr">
@@ -10989,7 +10989,7 @@
       </c>
       <c r="N185" t="inlineStr">
         <is>
-          <t>Anny Fresia Centeno Andia</t>
+          <t>CERECEDA QUINTAMILLA, YAKELIN VANESSA</t>
         </is>
       </c>
       <c r="O185" t="inlineStr">
@@ -11046,7 +11046,7 @@
       </c>
       <c r="N186" t="inlineStr">
         <is>
-          <t>Anny Fresia Centeno Andia</t>
+          <t>CERECEDA QUINTAMILLA, YAKELIN VANESSA</t>
         </is>
       </c>
       <c r="O186" t="inlineStr">
@@ -11103,7 +11103,7 @@
       </c>
       <c r="N187" t="inlineStr">
         <is>
-          <t>Anny Fresia Centeno Andia</t>
+          <t>CERECEDA QUINTAMILLA, YAKELIN VANESSA</t>
         </is>
       </c>
       <c r="O187" t="inlineStr">
@@ -11160,7 +11160,7 @@
       </c>
       <c r="N188" t="inlineStr">
         <is>
-          <t>Anny Fresia Centeno Andia</t>
+          <t>CERECEDA QUINTAMILLA, YAKELIN VANESSA</t>
         </is>
       </c>
       <c r="O188" t="inlineStr">
@@ -11217,7 +11217,7 @@
       </c>
       <c r="N189" t="inlineStr">
         <is>
-          <t>Anny Fresia Centeno Andia</t>
+          <t>CERECEDA QUINTAMILLA, YAKELIN VANESSA</t>
         </is>
       </c>
       <c r="O189" t="inlineStr">
@@ -11274,7 +11274,7 @@
       </c>
       <c r="N190" t="inlineStr">
         <is>
-          <t>Brayan Adolfo Mujica Guzman</t>
+          <t>PEÑALVA SUCA, LORENZO JESUS</t>
         </is>
       </c>
       <c r="O190" t="inlineStr">
@@ -11331,7 +11331,7 @@
       </c>
       <c r="N191" t="inlineStr">
         <is>
-          <t>Brayan Adolfo Mujica Guzman</t>
+          <t>PEÑALVA SUCA, LORENZO JESUS</t>
         </is>
       </c>
       <c r="O191" t="inlineStr">
@@ -11388,7 +11388,7 @@
       </c>
       <c r="N192" t="inlineStr">
         <is>
-          <t>Edson Francisco Luque Mamani</t>
+          <t>MALDONADO QUISPE, PERCY</t>
         </is>
       </c>
       <c r="O192" t="inlineStr">
@@ -11445,7 +11445,7 @@
       </c>
       <c r="N193" t="inlineStr">
         <is>
-          <t>Edson Francisco Luque Mamani</t>
+          <t>MALDONADO QUISPE, PERCY</t>
         </is>
       </c>
       <c r="O193" t="inlineStr">
@@ -11502,7 +11502,7 @@
       </c>
       <c r="N194" t="inlineStr">
         <is>
-          <t>Eliseo Daniel Velasquez Condori</t>
+          <t>PAZ VALDERBAMA, ALFREDO</t>
         </is>
       </c>
       <c r="O194" t="inlineStr">
@@ -11559,7 +11559,7 @@
       </c>
       <c r="N195" t="inlineStr">
         <is>
-          <t>Eliseo Daniel Velasquez Condori</t>
+          <t>PAZ VALDERBAMA, ALFREDO</t>
         </is>
       </c>
       <c r="O195" t="inlineStr">
@@ -11616,7 +11616,7 @@
       </c>
       <c r="N196" t="inlineStr">
         <is>
-          <t>Erech Ordoñez Ramos</t>
+          <t>MESTAS CHAVEZ, ROGER EDWAR</t>
         </is>
       </c>
       <c r="O196" t="inlineStr">
@@ -11673,7 +11673,7 @@
       </c>
       <c r="N197" t="inlineStr">
         <is>
-          <t>Erech Ordoñez Ramos</t>
+          <t>MESTAS CHAVEZ, ROGER EDWAR</t>
         </is>
       </c>
       <c r="O197" t="inlineStr">
@@ -11730,7 +11730,7 @@
       </c>
       <c r="N198" t="inlineStr">
         <is>
-          <t>Evelyn Perez Cervantes</t>
+          <t>VIZA HUAYLLASO, JUDID CARINA</t>
         </is>
       </c>
       <c r="O198" t="inlineStr">
@@ -11787,7 +11787,7 @@
       </c>
       <c r="N199" t="inlineStr">
         <is>
-          <t>Evelyn Perez Cervantes</t>
+          <t>VIZA HUAYLLASO, JUDID CARINA</t>
         </is>
       </c>
       <c r="O199" t="inlineStr">
@@ -11844,7 +11844,7 @@
       </c>
       <c r="N200" t="inlineStr">
         <is>
-          <t>Franklin Luis Antonio Cruz Gamero</t>
+          <t>OLANDA VELASQUEZ, BERTHA</t>
         </is>
       </c>
       <c r="O200" t="inlineStr">
@@ -11901,7 +11901,7 @@
       </c>
       <c r="N201" t="inlineStr">
         <is>
-          <t>Franklin Luis Antonio Cruz Gamero</t>
+          <t>OLANDA VELASQUEZ, BERTHA</t>
         </is>
       </c>
       <c r="O201" t="inlineStr">
@@ -11958,7 +11958,7 @@
       </c>
       <c r="N202" t="inlineStr">
         <is>
-          <t>Grover Enrique Castro Guzman</t>
+          <t>QUISPE MAMANI, ANTONIA</t>
         </is>
       </c>
       <c r="O202" t="inlineStr">
@@ -12015,7 +12015,7 @@
       </c>
       <c r="N203" t="inlineStr">
         <is>
-          <t>Grover Enrique Castro Guzman</t>
+          <t>QUISPE MAMANI, ANTONIA</t>
         </is>
       </c>
       <c r="O203" t="inlineStr">
@@ -12072,7 +12072,7 @@
       </c>
       <c r="N204" t="inlineStr">
         <is>
-          <t>Guadalupe Del Rosario Quispe Saji</t>
+          <t>LUQUE FERNANDEZ, CESAR RAUL</t>
         </is>
       </c>
       <c r="O204" t="inlineStr">
@@ -12129,7 +12129,7 @@
       </c>
       <c r="N205" t="inlineStr">
         <is>
-          <t>Guadalupe Del Rosario Quispe Saji</t>
+          <t>LUQUE FERNANDEZ, CESAR RAUL</t>
         </is>
       </c>
       <c r="O205" t="inlineStr">
@@ -12186,7 +12186,7 @@
       </c>
       <c r="N206" t="inlineStr">
         <is>
-          <t>Jesus Enrique Achire Quispe</t>
+          <t>AQUISE ESCOBEDO, SERGIO MOISES</t>
         </is>
       </c>
       <c r="O206" t="inlineStr">
@@ -12243,7 +12243,7 @@
       </c>
       <c r="N207" t="inlineStr">
         <is>
-          <t>Jesus Enrique Achire Quispe</t>
+          <t>AQUISE ESCOBEDO, SERGIO MOISES</t>
         </is>
       </c>
       <c r="O207" t="inlineStr">
@@ -12300,7 +12300,7 @@
       </c>
       <c r="N208" t="inlineStr">
         <is>
-          <t>Jorge Antonio Ihue Umire</t>
+          <t>ROQUE ROJI, ELIANA</t>
         </is>
       </c>
       <c r="O208" t="inlineStr">
@@ -12357,7 +12357,7 @@
       </c>
       <c r="N209" t="inlineStr">
         <is>
-          <t>Jorge Antonio Ihue Umire</t>
+          <t>ROQUE ROJI, ELIANA</t>
         </is>
       </c>
       <c r="O209" t="inlineStr">
@@ -12414,7 +12414,7 @@
       </c>
       <c r="N210" t="inlineStr">
         <is>
-          <t>Marina Jeaneth Machicao Justo</t>
+          <t>HANCO ANCORI, RICARDO JAVIER</t>
         </is>
       </c>
       <c r="O210" t="inlineStr">
@@ -12471,7 +12471,7 @@
       </c>
       <c r="N211" t="inlineStr">
         <is>
-          <t>Marina Jeaneth Machicao Justo</t>
+          <t>HANCO ANCORI, RICARDO JAVIER</t>
         </is>
       </c>
       <c r="O211" t="inlineStr">
@@ -12528,7 +12528,7 @@
       </c>
       <c r="N212" t="inlineStr">
         <is>
-          <t>Marisol Cristel Galarza Flores</t>
+          <t>CANO MAMANI, ADELA LUISA</t>
         </is>
       </c>
       <c r="O212" t="inlineStr">
@@ -12585,7 +12585,7 @@
       </c>
       <c r="N213" t="inlineStr">
         <is>
-          <t>Marisol Cristel Galarza Flores</t>
+          <t>CANO MAMANI, ADELA LUISA</t>
         </is>
       </c>
       <c r="O213" t="inlineStr">
@@ -12642,7 +12642,7 @@
       </c>
       <c r="N214" t="inlineStr">
         <is>
-          <t>Milton Raul Condori Fernandez</t>
+          <t>CABANA HANCO, WILSON RICARDO</t>
         </is>
       </c>
       <c r="O214" t="inlineStr">
@@ -12699,7 +12699,7 @@
       </c>
       <c r="N215" t="inlineStr">
         <is>
-          <t>Milton Raul Condori Fernandez</t>
+          <t>CABANA HANCO, WILSON RICARDO</t>
         </is>
       </c>
       <c r="O215" t="inlineStr">
@@ -12756,7 +12756,7 @@
       </c>
       <c r="N216" t="inlineStr">
         <is>
-          <t>Pablo Cesar Calcina Ccori</t>
+          <t>VELAZCO COACYAHUILLCA, YSIDRO</t>
         </is>
       </c>
       <c r="O216" t="inlineStr">
@@ -12813,7 +12813,7 @@
       </c>
       <c r="N217" t="inlineStr">
         <is>
-          <t>Pablo Cesar Calcina Ccori</t>
+          <t>VELAZCO COACYAHUILLCA, YSIDRO</t>
         </is>
       </c>
       <c r="O217" t="inlineStr">
@@ -12870,7 +12870,7 @@
       </c>
       <c r="N218" t="inlineStr">
         <is>
-          <t>Percy Antonio Ticona Centeno</t>
+          <t>GUTIERREZ RODRIGUEZ, EDDY AUGUSTO</t>
         </is>
       </c>
       <c r="O218" t="inlineStr">
@@ -12927,7 +12927,7 @@
       </c>
       <c r="N219" t="inlineStr">
         <is>
-          <t>Percy Antonio Ticona Centeno</t>
+          <t>GUTIERREZ RODRIGUEZ, EDDY AUGUSTO</t>
         </is>
       </c>
       <c r="O219" t="inlineStr">
@@ -12984,7 +12984,7 @@
       </c>
       <c r="N220" t="inlineStr">
         <is>
-          <t>Reynaldo Ricardo Quispe Infantes</t>
+          <t>VELASQUEZ CONDORI, ELISEO DANIEL</t>
         </is>
       </c>
       <c r="O220" t="inlineStr">
@@ -13041,7 +13041,7 @@
       </c>
       <c r="N221" t="inlineStr">
         <is>
-          <t>Reynaldo Ricardo Quispe Infantes</t>
+          <t>VELASQUEZ CONDORI, ELISEO DANIEL</t>
         </is>
       </c>
       <c r="O221" t="inlineStr">
@@ -13098,7 +13098,7 @@
       </c>
       <c r="N222" t="inlineStr">
         <is>
-          <t>Rolando Jesus Cardenas Talavera</t>
+          <t>CACERES ANCO, ROBERTO</t>
         </is>
       </c>
       <c r="O222" t="inlineStr">
@@ -13155,7 +13155,7 @@
       </c>
       <c r="N223" t="inlineStr">
         <is>
-          <t>Rolando Jesus Cardenas Talavera</t>
+          <t>CACERES ANCO, ROBERTO</t>
         </is>
       </c>
       <c r="O223" t="inlineStr">
@@ -13212,7 +13212,7 @@
       </c>
       <c r="N224" t="inlineStr">
         <is>
-          <t>Rolando Linares Delgado</t>
+          <t>JACOBE AGUIRRE, ROCIO</t>
         </is>
       </c>
       <c r="O224" t="inlineStr">
@@ -13269,7 +13269,7 @@
       </c>
       <c r="N225" t="inlineStr">
         <is>
-          <t>Rolando Linares Delgado</t>
+          <t>JACOBE AGUIRRE, ROCIO</t>
         </is>
       </c>
       <c r="O225" t="inlineStr">
@@ -13326,7 +13326,7 @@
       </c>
       <c r="N226" t="inlineStr">
         <is>
-          <t>Ronny Ivan Gonzales Medina</t>
+          <t>PILCO ANDIA, CARLOTA CRISTINA</t>
         </is>
       </c>
       <c r="O226" t="inlineStr">
@@ -13383,7 +13383,7 @@
       </c>
       <c r="N227" t="inlineStr">
         <is>
-          <t>Ronny Ivan Gonzales Medina</t>
+          <t>PILCO ANDIA, CARLOTA CRISTINA</t>
         </is>
       </c>
       <c r="O227" t="inlineStr">
@@ -13440,7 +13440,7 @@
       </c>
       <c r="N228" t="inlineStr">
         <is>
-          <t>Yesica Karin Granda Lazaro</t>
+          <t>OSORIO MENDOZA DE MONTEZA, NADJA CATALINA</t>
         </is>
       </c>
       <c r="O228" t="inlineStr">
@@ -13497,7 +13497,7 @@
       </c>
       <c r="N229" t="inlineStr">
         <is>
-          <t>Yesica Karin Granda Lazaro</t>
+          <t>OSORIO MENDOZA DE MONTEZA, NADJA CATALINA</t>
         </is>
       </c>
       <c r="O229" t="inlineStr">
@@ -13554,7 +13554,7 @@
       </c>
       <c r="N230" t="inlineStr">
         <is>
-          <t>Alvaro Henry Mamani Aliaga</t>
+          <t>ZEBALLOS RAMIREZ, PIAR ELIZABETH</t>
         </is>
       </c>
       <c r="O230" t="inlineStr">
@@ -13611,7 +13611,7 @@
       </c>
       <c r="N231" t="inlineStr">
         <is>
-          <t>Alvaro Henry Mamani Aliaga</t>
+          <t>ZEBALLOS RAMIREZ, PIAR ELIZABETH</t>
         </is>
       </c>
       <c r="O231" t="inlineStr">
@@ -13668,7 +13668,7 @@
       </c>
       <c r="N232" t="inlineStr">
         <is>
-          <t>Ana Maria Cuadros Valdivia</t>
+          <t>MESTAS VALDIVIA, JOSE CARLOS</t>
         </is>
       </c>
       <c r="O232" t="inlineStr">
@@ -13725,7 +13725,7 @@
       </c>
       <c r="N233" t="inlineStr">
         <is>
-          <t>Ana Maria Cuadros Valdivia</t>
+          <t>MESTAS VALDIVIA, JOSE CARLOS</t>
         </is>
       </c>
       <c r="O233" t="inlineStr">
@@ -13782,7 +13782,7 @@
       </c>
       <c r="N234" t="inlineStr">
         <is>
-          <t>Benigno Erick Sanz Sanz</t>
+          <t>MONROY CARNERO, DANIEL JESUS</t>
         </is>
       </c>
       <c r="O234" t="inlineStr">
@@ -13839,7 +13839,7 @@
       </c>
       <c r="N235" t="inlineStr">
         <is>
-          <t>Benigno Erick Sanz Sanz</t>
+          <t>MONROY CARNERO, DANIEL JESUS</t>
         </is>
       </c>
       <c r="O235" t="inlineStr">
@@ -13896,7 +13896,7 @@
       </c>
       <c r="N236" t="inlineStr">
         <is>
-          <t>Cristian Jose Lopez Del Alamo</t>
+          <t>TACCA QUISPE, LORENZO WILBERT</t>
         </is>
       </c>
       <c r="O236" t="inlineStr">
@@ -13953,7 +13953,7 @@
       </c>
       <c r="N237" t="inlineStr">
         <is>
-          <t>Cristian Jose Lopez Del Alamo</t>
+          <t>TACCA QUISPE, LORENZO WILBERT</t>
         </is>
       </c>
       <c r="O237" t="inlineStr">
@@ -14010,7 +14010,7 @@
       </c>
       <c r="N238" t="inlineStr">
         <is>
-          <t>Edgar Sarmiento Calisaya</t>
+          <t>TORRES GONZALES, SELENE BELEN</t>
         </is>
       </c>
       <c r="O238" t="inlineStr">
@@ -14067,7 +14067,7 @@
       </c>
       <c r="N239" t="inlineStr">
         <is>
-          <t>Edgar Sarmiento Calisaya</t>
+          <t>TORRES GONZALES, SELENE BELEN</t>
         </is>
       </c>
       <c r="O239" t="inlineStr">
@@ -14124,7 +14124,7 @@
       </c>
       <c r="N240" t="inlineStr">
         <is>
-          <t>Edward Hinojosa Cardenas</t>
+          <t>NUÑEZ GUZMAN, ROXANA LUISA</t>
         </is>
       </c>
       <c r="O240" t="inlineStr">
@@ -14181,7 +14181,7 @@
       </c>
       <c r="N241" t="inlineStr">
         <is>
-          <t>Edward Hinojosa Cardenas</t>
+          <t>NUÑEZ GUZMAN, ROXANA LUISA</t>
         </is>
       </c>
       <c r="O241" t="inlineStr">
@@ -14238,7 +14238,7 @@
       </c>
       <c r="N242" t="inlineStr">
         <is>
-          <t>Eliana Maria Adriazola Herrera</t>
+          <t>CALLO HUAYNA, JENNY LAURA</t>
         </is>
       </c>
       <c r="O242" t="inlineStr">
@@ -14295,7 +14295,7 @@
       </c>
       <c r="N243" t="inlineStr">
         <is>
-          <t>Eliana Maria Adriazola Herrera</t>
+          <t>CALLO HUAYNA, JENNY LAURA</t>
         </is>
       </c>
       <c r="O243" t="inlineStr">
@@ -14352,7 +14352,7 @@
       </c>
       <c r="N244" t="inlineStr">
         <is>
-          <t>Erika Patricia Lazo Alarcon</t>
+          <t>GARCIA QUISPE, WILLY ENRIQUE</t>
         </is>
       </c>
       <c r="O244" t="inlineStr">
@@ -14409,7 +14409,7 @@
       </c>
       <c r="N245" t="inlineStr">
         <is>
-          <t>Erika Patricia Lazo Alarcon</t>
+          <t>GARCIA QUISPE, WILLY ENRIQUE</t>
         </is>
       </c>
       <c r="O245" t="inlineStr">
@@ -14466,7 +14466,7 @@
       </c>
       <c r="N246" t="inlineStr">
         <is>
-          <t>Franci Suni Lopez</t>
+          <t>CHIRINOS TOVAR, KARINA ROGELIO</t>
         </is>
       </c>
       <c r="O246" t="inlineStr">
@@ -14523,7 +14523,7 @@
       </c>
       <c r="N247" t="inlineStr">
         <is>
-          <t>Franci Suni Lopez</t>
+          <t>CHIRINOS TOVAR, KARINA ROGELIO</t>
         </is>
       </c>
       <c r="O247" t="inlineStr">
@@ -14580,7 +14580,7 @@
       </c>
       <c r="N248" t="inlineStr">
         <is>
-          <t>Jesus Heraclio Zuñiga Cueva</t>
+          <t>CACERES CAERO, FELIX</t>
         </is>
       </c>
       <c r="O248" t="inlineStr">
@@ -14637,7 +14637,7 @@
       </c>
       <c r="N249" t="inlineStr">
         <is>
-          <t>Jesus Heraclio Zuñiga Cueva</t>
+          <t>CACERES CAERO, FELIX</t>
         </is>
       </c>
       <c r="O249" t="inlineStr">
@@ -14694,7 +14694,7 @@
       </c>
       <c r="N250" t="inlineStr">
         <is>
-          <t>Marcela Quispe Cruz</t>
+          <t>LINARES DELGADO, ROLANDO</t>
         </is>
       </c>
       <c r="O250" t="inlineStr">
@@ -14751,7 +14751,7 @@
       </c>
       <c r="N251" t="inlineStr">
         <is>
-          <t>Marcela Quispe Cruz</t>
+          <t>LINARES DELGADO, ROLANDO</t>
         </is>
       </c>
       <c r="O251" t="inlineStr">
@@ -14808,7 +14808,7 @@
       </c>
       <c r="N252" t="inlineStr">
         <is>
-          <t>Marcela Quispe Cruz</t>
+          <t>LINARES DELGADO, ROLANDO</t>
         </is>
       </c>
       <c r="O252" t="inlineStr">
@@ -14865,7 +14865,7 @@
       </c>
       <c r="N253" t="inlineStr">
         <is>
-          <t>Marcela Quispe Cruz</t>
+          <t>LINARES DELGADO, ROLANDO</t>
         </is>
       </c>
       <c r="O253" t="inlineStr">
@@ -14922,7 +14922,7 @@
       </c>
       <c r="N254" t="inlineStr">
         <is>
-          <t>Marcela Quispe Cruz</t>
+          <t>LINARES DELGADO, ROLANDO</t>
         </is>
       </c>
       <c r="O254" t="inlineStr">
@@ -14979,7 +14979,7 @@
       </c>
       <c r="N255" t="inlineStr">
         <is>
-          <t>Marcela Quispe Cruz</t>
+          <t>LINARES DELGADO, ROLANDO</t>
         </is>
       </c>
       <c r="O255" t="inlineStr">
@@ -15036,7 +15036,7 @@
       </c>
       <c r="N256" t="inlineStr">
         <is>
-          <t>Marco Antonio Valdivia Malaga</t>
+          <t>QUISPE CRUZ, MARCELA</t>
         </is>
       </c>
       <c r="O256" t="inlineStr">
@@ -15093,7 +15093,7 @@
       </c>
       <c r="N257" t="inlineStr">
         <is>
-          <t>Marco Antonio Valdivia Malaga</t>
+          <t>QUISPE CRUZ, MARCELA</t>
         </is>
       </c>
       <c r="O257" t="inlineStr">
@@ -15150,7 +15150,7 @@
       </c>
       <c r="N258" t="inlineStr">
         <is>
-          <t>Marco Antonio Valdivia Malaga</t>
+          <t>QUISPE CRUZ, MARCELA</t>
         </is>
       </c>
       <c r="O258" t="inlineStr">
@@ -15207,7 +15207,7 @@
       </c>
       <c r="N259" t="inlineStr">
         <is>
-          <t>Marco Antonio Valdivia Malaga</t>
+          <t>QUISPE CRUZ, MARCELA</t>
         </is>
       </c>
       <c r="O259" t="inlineStr">
@@ -15264,7 +15264,7 @@
       </c>
       <c r="N260" t="inlineStr">
         <is>
-          <t>Marco Antonio Valdivia Malaga</t>
+          <t>QUISPE CRUZ, MARCELA</t>
         </is>
       </c>
       <c r="O260" t="inlineStr">
@@ -15321,7 +15321,7 @@
       </c>
       <c r="N261" t="inlineStr">
         <is>
-          <t>Marco Antonio Valdivia Malaga</t>
+          <t>QUISPE CRUZ, MARCELA</t>
         </is>
       </c>
       <c r="O261" t="inlineStr">
@@ -15378,7 +15378,7 @@
       </c>
       <c r="N262" t="inlineStr">
         <is>
-          <t>Raquel Noelia Arredondo Choque</t>
+          <t>SARMIENTO CALISAYA, EDGAR</t>
         </is>
       </c>
       <c r="O262" t="inlineStr">
@@ -15435,7 +15435,7 @@
       </c>
       <c r="N263" t="inlineStr">
         <is>
-          <t>Raquel Noelia Arredondo Choque</t>
+          <t>SARMIENTO CALISAYA, EDGAR</t>
         </is>
       </c>
       <c r="O263" t="inlineStr">
@@ -15492,7 +15492,7 @@
       </c>
       <c r="N264" t="inlineStr">
         <is>
-          <t>Raquel Noelia Arredondo Choque</t>
+          <t>SARMIENTO CALISAYA, EDGAR</t>
         </is>
       </c>
       <c r="O264" t="inlineStr">
@@ -15549,7 +15549,7 @@
       </c>
       <c r="N265" t="inlineStr">
         <is>
-          <t>Roxana Flores Quispe</t>
+          <t>MAMAN ALIAGA, ALVARO HENRY</t>
         </is>
       </c>
       <c r="O265" t="inlineStr">
@@ -15606,7 +15606,7 @@
       </c>
       <c r="N266" t="inlineStr">
         <is>
-          <t>Roxana Flores Quispe</t>
+          <t>MAMAN ALIAGA, ALVARO HENRY</t>
         </is>
       </c>
       <c r="O266" t="inlineStr">
@@ -15663,7 +15663,7 @@
       </c>
       <c r="N267" t="inlineStr">
         <is>
-          <t>Roxana Flores Quispe</t>
+          <t>MAMAN ALIAGA, ALVARO HENRY</t>
         </is>
       </c>
       <c r="O267" t="inlineStr">
@@ -15720,7 +15720,7 @@
       </c>
       <c r="N268" t="inlineStr">
         <is>
-          <t>Benigno Erick Sanz Sanz</t>
+          <t>SARMIENTO CALISAYA, EDGAR</t>
         </is>
       </c>
       <c r="O268" t="inlineStr">
@@ -15777,7 +15777,7 @@
       </c>
       <c r="N269" t="inlineStr">
         <is>
-          <t>Benigno Erick Sanz Sanz</t>
+          <t>SARMIENTO CALISAYA, EDGAR</t>
         </is>
       </c>
       <c r="O269" t="inlineStr">
@@ -15834,7 +15834,7 @@
       </c>
       <c r="N270" t="inlineStr">
         <is>
-          <t>Benigno Erick Sanz Sanz</t>
+          <t>SARMIENTO CALISAYA, EDGAR</t>
         </is>
       </c>
       <c r="O270" t="inlineStr">
@@ -15891,7 +15891,7 @@
       </c>
       <c r="N271" t="inlineStr">
         <is>
-          <t>Benigno Erick Sanz Sanz</t>
+          <t>SARMIENTO CALISAYA, EDGAR</t>
         </is>
       </c>
       <c r="O271" t="inlineStr">
@@ -15948,7 +15948,7 @@
       </c>
       <c r="N272" t="inlineStr">
         <is>
-          <t>Benigno Erick Sanz Sanz</t>
+          <t>SARMIENTO CALISAYA, EDGAR</t>
         </is>
       </c>
       <c r="O272" t="inlineStr">
@@ -16005,7 +16005,7 @@
       </c>
       <c r="N273" t="inlineStr">
         <is>
-          <t>Benigno Erick Sanz Sanz</t>
+          <t>SARMIENTO CALISAYA, EDGAR</t>
         </is>
       </c>
       <c r="O273" t="inlineStr">
@@ -16062,7 +16062,7 @@
       </c>
       <c r="N274" t="inlineStr">
         <is>
-          <t>Benigno Erick Sanz Sanz</t>
+          <t>SARMIENTO CALISAYA, EDGAR</t>
         </is>
       </c>
       <c r="O274" t="inlineStr">
@@ -16119,7 +16119,7 @@
       </c>
       <c r="N275" t="inlineStr">
         <is>
-          <t>Benigno Erick Sanz Sanz</t>
+          <t>SARMIENTO CALISAYA, EDGAR</t>
         </is>
       </c>
       <c r="O275" t="inlineStr">
@@ -16166,17 +16166,17 @@
       </c>
       <c r="L276" t="inlineStr">
         <is>
-          <t>12:20</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="M276" t="inlineStr">
         <is>
-          <t>13:10</t>
+          <t>16:50</t>
         </is>
       </c>
       <c r="N276" t="inlineStr">
         <is>
-          <t>Cristian Jose Lopez Del Alamo</t>
+          <t>MAMAN ALIAGA, ALVARO HENRY</t>
         </is>
       </c>
       <c r="O276" t="inlineStr">
@@ -16223,17 +16223,17 @@
       </c>
       <c r="L277" t="inlineStr">
         <is>
-          <t>13:10</t>
+          <t>16:50</t>
         </is>
       </c>
       <c r="M277" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>17:40</t>
         </is>
       </c>
       <c r="N277" t="inlineStr">
         <is>
-          <t>Cristian Jose Lopez Del Alamo</t>
+          <t>MAMAN ALIAGA, ALVARO HENRY</t>
         </is>
       </c>
       <c r="O277" t="inlineStr">
@@ -16280,17 +16280,17 @@
       </c>
       <c r="L278" t="inlineStr">
         <is>
-          <t>14:10</t>
+          <t>17:50</t>
         </is>
       </c>
       <c r="M278" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>18:40</t>
         </is>
       </c>
       <c r="N278" t="inlineStr">
         <is>
-          <t>Cristian Jose Lopez Del Alamo</t>
+          <t>MAMAN ALIAGA, ALVARO HENRY</t>
         </is>
       </c>
       <c r="O278" t="inlineStr">
@@ -16337,17 +16337,17 @@
       </c>
       <c r="L279" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>18:40</t>
         </is>
       </c>
       <c r="M279" t="inlineStr">
         <is>
-          <t>15:50</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="N279" t="inlineStr">
         <is>
-          <t>Cristian Jose Lopez Del Alamo</t>
+          <t>MAMAN ALIAGA, ALVARO HENRY</t>
         </is>
       </c>
       <c r="O279" t="inlineStr">
@@ -16404,7 +16404,7 @@
       </c>
       <c r="N280" t="inlineStr">
         <is>
-          <t>Cristian Jose Lopez Del Alamo</t>
+          <t>MAMAN ALIAGA, ALVARO HENRY</t>
         </is>
       </c>
       <c r="O280" t="inlineStr">
@@ -16461,7 +16461,7 @@
       </c>
       <c r="N281" t="inlineStr">
         <is>
-          <t>Cristian Jose Lopez Del Alamo</t>
+          <t>MAMAN ALIAGA, ALVARO HENRY</t>
         </is>
       </c>
       <c r="O281" t="inlineStr">
@@ -16518,7 +16518,7 @@
       </c>
       <c r="N282" t="inlineStr">
         <is>
-          <t>Cristian Jose Lopez Del Alamo</t>
+          <t>MAMAN ALIAGA, ALVARO HENRY</t>
         </is>
       </c>
       <c r="O282" t="inlineStr">
@@ -16575,7 +16575,7 @@
       </c>
       <c r="N283" t="inlineStr">
         <is>
-          <t>Cristian Jose Lopez Del Alamo</t>
+          <t>MAMAN ALIAGA, ALVARO HENRY</t>
         </is>
       </c>
       <c r="O283" t="inlineStr">
@@ -16632,7 +16632,7 @@
       </c>
       <c r="N284" t="inlineStr">
         <is>
-          <t>Judith Hayde Cruz Torres</t>
+          <t>DELGADO BARRA, LUCY ANGELA</t>
         </is>
       </c>
       <c r="O284" t="inlineStr">
@@ -16689,7 +16689,7 @@
       </c>
       <c r="N285" t="inlineStr">
         <is>
-          <t>Judith Hayde Cruz Torres</t>
+          <t>DELGADO BARRA, LUCY ANGELA</t>
         </is>
       </c>
       <c r="O285" t="inlineStr">
@@ -16746,7 +16746,7 @@
       </c>
       <c r="N286" t="inlineStr">
         <is>
-          <t>Judith Hayde Cruz Torres</t>
+          <t>DELGADO BARRA, LUCY ANGELA</t>
         </is>
       </c>
       <c r="O286" t="inlineStr">
@@ -16803,7 +16803,7 @@
       </c>
       <c r="N287" t="inlineStr">
         <is>
-          <t>Judith Hayde Cruz Torres</t>
+          <t>DELGADO BARRA, LUCY ANGELA</t>
         </is>
       </c>
       <c r="O287" t="inlineStr">
@@ -16860,7 +16860,7 @@
       </c>
       <c r="N288" t="inlineStr">
         <is>
-          <t>Judith Hayde Cruz Torres</t>
+          <t>DELGADO BARRA, LUCY ANGELA</t>
         </is>
       </c>
       <c r="O288" t="inlineStr">
@@ -16917,7 +16917,7 @@
       </c>
       <c r="N289" t="inlineStr">
         <is>
-          <t>Judith Hayde Cruz Torres</t>
+          <t>DELGADO BARRA, LUCY ANGELA</t>
         </is>
       </c>
       <c r="O289" t="inlineStr">
@@ -16974,7 +16974,7 @@
       </c>
       <c r="N290" t="inlineStr">
         <is>
-          <t>Judith Hayde Cruz Torres</t>
+          <t>DELGADO BARRA, LUCY ANGELA</t>
         </is>
       </c>
       <c r="O290" t="inlineStr">
@@ -17031,7 +17031,7 @@
       </c>
       <c r="N291" t="inlineStr">
         <is>
-          <t>Judith Hayde Cruz Torres</t>
+          <t>DELGADO BARRA, LUCY ANGELA</t>
         </is>
       </c>
       <c r="O291" t="inlineStr">
@@ -17088,7 +17088,7 @@
       </c>
       <c r="N292" t="inlineStr">
         <is>
-          <t>Lucy Angela Delgado Barra</t>
+          <t>ZUÑIGA CUEVA, JESUS HERACLIO</t>
         </is>
       </c>
       <c r="O292" t="inlineStr">
@@ -17145,7 +17145,7 @@
       </c>
       <c r="N293" t="inlineStr">
         <is>
-          <t>Lucy Angela Delgado Barra</t>
+          <t>ZUÑIGA CUEVA, JESUS HERACLIO</t>
         </is>
       </c>
       <c r="O293" t="inlineStr">
@@ -17202,7 +17202,7 @@
       </c>
       <c r="N294" t="inlineStr">
         <is>
-          <t>Lucy Angela Delgado Barra</t>
+          <t>ZUÑIGA CUEVA, JESUS HERACLIO</t>
         </is>
       </c>
       <c r="O294" t="inlineStr">
@@ -17259,7 +17259,7 @@
       </c>
       <c r="N295" t="inlineStr">
         <is>
-          <t>Lucy Angela Delgado Barra</t>
+          <t>ZUÑIGA CUEVA, JESUS HERACLIO</t>
         </is>
       </c>
       <c r="O295" t="inlineStr">
@@ -17316,7 +17316,7 @@
       </c>
       <c r="N296" t="inlineStr">
         <is>
-          <t>Lucy Angela Delgado Barra</t>
+          <t>ZUÑIGA CUEVA, JESUS HERACLIO</t>
         </is>
       </c>
       <c r="O296" t="inlineStr">
@@ -17373,7 +17373,7 @@
       </c>
       <c r="N297" t="inlineStr">
         <is>
-          <t>Lucy Angela Delgado Barra</t>
+          <t>ZUÑIGA CUEVA, JESUS HERACLIO</t>
         </is>
       </c>
       <c r="O297" t="inlineStr">
@@ -17430,7 +17430,7 @@
       </c>
       <c r="N298" t="inlineStr">
         <is>
-          <t>Lucy Angela Delgado Barra</t>
+          <t>ZUÑIGA CUEVA, JESUS HERACLIO</t>
         </is>
       </c>
       <c r="O298" t="inlineStr">
@@ -17487,7 +17487,7 @@
       </c>
       <c r="N299" t="inlineStr">
         <is>
-          <t>Lucy Angela Delgado Barra</t>
+          <t>ZUÑIGA CUEVA, JESUS HERACLIO</t>
         </is>
       </c>
       <c r="O299" t="inlineStr">
@@ -17544,7 +17544,7 @@
       </c>
       <c r="N300" t="inlineStr">
         <is>
-          <t>Marcela Quispe Cruz</t>
+          <t>LAZO ALARCON, ERIKA PATRICIA</t>
         </is>
       </c>
       <c r="O300" t="inlineStr">
@@ -17601,7 +17601,7 @@
       </c>
       <c r="N301" t="inlineStr">
         <is>
-          <t>Marcela Quispe Cruz</t>
+          <t>LAZO ALARCON, ERIKA PATRICIA</t>
         </is>
       </c>
       <c r="O301" t="inlineStr">
@@ -17658,7 +17658,7 @@
       </c>
       <c r="N302" t="inlineStr">
         <is>
-          <t>Marcela Quispe Cruz</t>
+          <t>LAZO ALARCON, ERIKA PATRICIA</t>
         </is>
       </c>
       <c r="O302" t="inlineStr">
@@ -17715,7 +17715,7 @@
       </c>
       <c r="N303" t="inlineStr">
         <is>
-          <t>Marcela Quispe Cruz</t>
+          <t>LAZO ALARCON, ERIKA PATRICIA</t>
         </is>
       </c>
       <c r="O303" t="inlineStr">
@@ -17772,7 +17772,7 @@
       </c>
       <c r="N304" t="inlineStr">
         <is>
-          <t>Marco Antonio Valdivia Malaga</t>
+          <t>GUTIERREZ CACERES, JUAN CARLOS</t>
         </is>
       </c>
       <c r="O304" t="inlineStr">
@@ -17829,7 +17829,7 @@
       </c>
       <c r="N305" t="inlineStr">
         <is>
-          <t>Marco Antonio Valdivia Malaga</t>
+          <t>GUTIERREZ CACERES, JUAN CARLOS</t>
         </is>
       </c>
       <c r="O305" t="inlineStr">
@@ -17886,7 +17886,7 @@
       </c>
       <c r="N306" t="inlineStr">
         <is>
-          <t>Marco Antonio Valdivia Malaga</t>
+          <t>GUTIERREZ CACERES, JUAN CARLOS</t>
         </is>
       </c>
       <c r="O306" t="inlineStr">
@@ -17943,7 +17943,7 @@
       </c>
       <c r="N307" t="inlineStr">
         <is>
-          <t>Marco Antonio Valdivia Malaga</t>
+          <t>GUTIERREZ CACERES, JUAN CARLOS</t>
         </is>
       </c>
       <c r="O307" t="inlineStr">
@@ -18000,7 +18000,7 @@
       </c>
       <c r="N308" t="inlineStr">
         <is>
-          <t>Raquel Noelia Arredondo Choque</t>
+          <t>ADRIANZOLA HERRERA, ELIANA MARIA</t>
         </is>
       </c>
       <c r="O308" t="inlineStr">
@@ -18057,7 +18057,7 @@
       </c>
       <c r="N309" t="inlineStr">
         <is>
-          <t>Raquel Noelia Arredondo Choque</t>
+          <t>ADRIANZOLA HERRERA, ELIANA MARIA</t>
         </is>
       </c>
       <c r="O309" t="inlineStr">
@@ -18114,7 +18114,7 @@
       </c>
       <c r="N310" t="inlineStr">
         <is>
-          <t>Raquel Noelia Arredondo Choque</t>
+          <t>ADRIANZOLA HERRERA, ELIANA MARIA</t>
         </is>
       </c>
       <c r="O310" t="inlineStr">
@@ -18171,7 +18171,7 @@
       </c>
       <c r="N311" t="inlineStr">
         <is>
-          <t>Raquel Noelia Arredondo Choque</t>
+          <t>ADRIANZOLA HERRERA, ELIANA MARIA</t>
         </is>
       </c>
       <c r="O311" t="inlineStr">
@@ -18228,7 +18228,7 @@
       </c>
       <c r="N312" t="inlineStr">
         <is>
-          <t>Raquel Noelia Arredondo Choque</t>
+          <t>ADRIANZOLA HERRERA, ELIANA MARIA</t>
         </is>
       </c>
       <c r="O312" t="inlineStr">
@@ -18285,7 +18285,7 @@
       </c>
       <c r="N313" t="inlineStr">
         <is>
-          <t>Raquel Noelia Arredondo Choque</t>
+          <t>ADRIANZOLA HERRERA, ELIANA MARIA</t>
         </is>
       </c>
       <c r="O313" t="inlineStr">
@@ -18342,7 +18342,7 @@
       </c>
       <c r="N314" t="inlineStr">
         <is>
-          <t>Raquel Noelia Arredondo Choque</t>
+          <t>ADRIANZOLA HERRERA, ELIANA MARIA</t>
         </is>
       </c>
       <c r="O314" t="inlineStr">
@@ -18399,7 +18399,7 @@
       </c>
       <c r="N315" t="inlineStr">
         <is>
-          <t>Raquel Noelia Arredondo Choque</t>
+          <t>ADRIANZOLA HERRERA, ELIANA MARIA</t>
         </is>
       </c>
       <c r="O315" t="inlineStr">
@@ -18446,17 +18446,17 @@
       </c>
       <c r="L316" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>12:20</t>
         </is>
       </c>
       <c r="M316" t="inlineStr">
         <is>
-          <t>16:50</t>
+          <t>13:10</t>
         </is>
       </c>
       <c r="N316" t="inlineStr">
         <is>
-          <t>Roxana Flores Quispe</t>
+          <t>CALLOAPAZA PARI, SONIA BENILDA</t>
         </is>
       </c>
       <c r="O316" t="inlineStr">
@@ -18503,17 +18503,17 @@
       </c>
       <c r="L317" t="inlineStr">
         <is>
-          <t>16:50</t>
+          <t>13:10</t>
         </is>
       </c>
       <c r="M317" t="inlineStr">
         <is>
-          <t>17:40</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="N317" t="inlineStr">
         <is>
-          <t>Roxana Flores Quispe</t>
+          <t>CALLOAPAZA PARI, SONIA BENILDA</t>
         </is>
       </c>
       <c r="O317" t="inlineStr">
@@ -18560,17 +18560,17 @@
       </c>
       <c r="L318" t="inlineStr">
         <is>
-          <t>17:50</t>
+          <t>14:10</t>
         </is>
       </c>
       <c r="M318" t="inlineStr">
         <is>
-          <t>18:40</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="N318" t="inlineStr">
         <is>
-          <t>Roxana Flores Quispe</t>
+          <t>CALLOAPAZA PARI, SONIA BENILDA</t>
         </is>
       </c>
       <c r="O318" t="inlineStr">
@@ -18617,17 +18617,17 @@
       </c>
       <c r="L319" t="inlineStr">
         <is>
-          <t>18:40</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="M319" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>15:50</t>
         </is>
       </c>
       <c r="N319" t="inlineStr">
         <is>
-          <t>Roxana Flores Quispe</t>
+          <t>CALLOAPAZA PARI, SONIA BENILDA</t>
         </is>
       </c>
       <c r="O319" t="inlineStr">
@@ -18684,7 +18684,7 @@
       </c>
       <c r="N320" t="inlineStr">
         <is>
-          <t>Roxana Flores Quispe</t>
+          <t>CALLOAPAZA PARI, SONIA BENILDA</t>
         </is>
       </c>
       <c r="O320" t="inlineStr">
@@ -18741,7 +18741,7 @@
       </c>
       <c r="N321" t="inlineStr">
         <is>
-          <t>Roxana Flores Quispe</t>
+          <t>CALLOAPAZA PARI, SONIA BENILDA</t>
         </is>
       </c>
       <c r="O321" t="inlineStr">
@@ -18798,7 +18798,7 @@
       </c>
       <c r="N322" t="inlineStr">
         <is>
-          <t>Roxana Flores Quispe</t>
+          <t>CALLOAPAZA PARI, SONIA BENILDA</t>
         </is>
       </c>
       <c r="O322" t="inlineStr">
@@ -18855,7 +18855,7 @@
       </c>
       <c r="N323" t="inlineStr">
         <is>
-          <t>Roxana Flores Quispe</t>
+          <t>CALLOAPAZA PARI, SONIA BENILDA</t>
         </is>
       </c>
       <c r="O323" t="inlineStr">
@@ -18912,7 +18912,7 @@
       </c>
       <c r="N324" t="inlineStr">
         <is>
-          <t>Wilber Roberto Ramos Lovon</t>
+          <t>VILLAR GARNICA, ELVA EMELINA</t>
         </is>
       </c>
       <c r="O324" t="inlineStr">
@@ -18969,7 +18969,7 @@
       </c>
       <c r="N325" t="inlineStr">
         <is>
-          <t>Wilber Roberto Ramos Lovon</t>
+          <t>VILLAR GARNICA, ELVA EMELINA</t>
         </is>
       </c>
       <c r="O325" t="inlineStr">
@@ -19026,7 +19026,7 @@
       </c>
       <c r="N326" t="inlineStr">
         <is>
-          <t>Wilber Roberto Ramos Lovon</t>
+          <t>VILLAR GARNICA, ELVA EMELINA</t>
         </is>
       </c>
       <c r="O326" t="inlineStr">
@@ -19083,7 +19083,7 @@
       </c>
       <c r="N327" t="inlineStr">
         <is>
-          <t>Wilber Roberto Ramos Lovon</t>
+          <t>VILLAR GARNICA, ELVA EMELINA</t>
         </is>
       </c>
       <c r="O327" t="inlineStr">
@@ -19130,17 +19130,17 @@
       </c>
       <c r="L328" t="inlineStr">
         <is>
-          <t>12:20</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="M328" t="inlineStr">
         <is>
-          <t>13:10</t>
+          <t>16:50</t>
         </is>
       </c>
       <c r="N328" t="inlineStr">
         <is>
-          <t>Yessenia Deysi Yari Ramos</t>
+          <t>SUAREZ LOPEZ, ERNESTO MAURO</t>
         </is>
       </c>
       <c r="O328" t="inlineStr">
@@ -19187,17 +19187,17 @@
       </c>
       <c r="L329" t="inlineStr">
         <is>
-          <t>13:10</t>
+          <t>16:50</t>
         </is>
       </c>
       <c r="M329" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>17:40</t>
         </is>
       </c>
       <c r="N329" t="inlineStr">
         <is>
-          <t>Yessenia Deysi Yari Ramos</t>
+          <t>SUAREZ LOPEZ, ERNESTO MAURO</t>
         </is>
       </c>
       <c r="O329" t="inlineStr">
@@ -19254,7 +19254,7 @@
       </c>
       <c r="N330" t="inlineStr">
         <is>
-          <t>Yessenia Deysi Yari Ramos</t>
+          <t>SUAREZ LOPEZ, ERNESTO MAURO</t>
         </is>
       </c>
       <c r="O330" t="inlineStr">
@@ -19311,7 +19311,7 @@
       </c>
       <c r="N331" t="inlineStr">
         <is>
-          <t>Yessenia Deysi Yari Ramos</t>
+          <t>SUAREZ LOPEZ, ERNESTO MAURO</t>
         </is>
       </c>
       <c r="O331" t="inlineStr">
@@ -19368,7 +19368,7 @@
       </c>
       <c r="N332" t="inlineStr">
         <is>
-          <t>Brayan Adolfo Mujica Guzman</t>
+          <t>PEÑALVA SUCA, LORENZO JESUS</t>
         </is>
       </c>
       <c r="O332" t="inlineStr">
@@ -19425,7 +19425,7 @@
       </c>
       <c r="N333" t="inlineStr">
         <is>
-          <t>Brayan Adolfo Mujica Guzman</t>
+          <t>PEÑALVA SUCA, LORENZO JESUS</t>
         </is>
       </c>
       <c r="O333" t="inlineStr">
@@ -19482,7 +19482,7 @@
       </c>
       <c r="N334" t="inlineStr">
         <is>
-          <t>Brayan Adolfo Mujica Guzman</t>
+          <t>PEÑALVA SUCA, LORENZO JESUS</t>
         </is>
       </c>
       <c r="O334" t="inlineStr">
@@ -19539,7 +19539,7 @@
       </c>
       <c r="N335" t="inlineStr">
         <is>
-          <t>Brayan Adolfo Mujica Guzman</t>
+          <t>PEÑALVA SUCA, LORENZO JESUS</t>
         </is>
       </c>
       <c r="O335" t="inlineStr">
@@ -19596,7 +19596,7 @@
       </c>
       <c r="N336" t="inlineStr">
         <is>
-          <t>Edson Francisco Luque Mamani</t>
+          <t>MALDONADO QUISPE, PERCY</t>
         </is>
       </c>
       <c r="O336" t="inlineStr">
@@ -19653,7 +19653,7 @@
       </c>
       <c r="N337" t="inlineStr">
         <is>
-          <t>Edson Francisco Luque Mamani</t>
+          <t>MALDONADO QUISPE, PERCY</t>
         </is>
       </c>
       <c r="O337" t="inlineStr">
@@ -19710,7 +19710,7 @@
       </c>
       <c r="N338" t="inlineStr">
         <is>
-          <t>Edson Francisco Luque Mamani</t>
+          <t>MALDONADO QUISPE, PERCY</t>
         </is>
       </c>
       <c r="O338" t="inlineStr">
@@ -19767,7 +19767,7 @@
       </c>
       <c r="N339" t="inlineStr">
         <is>
-          <t>Edson Francisco Luque Mamani</t>
+          <t>MALDONADO QUISPE, PERCY</t>
         </is>
       </c>
       <c r="O339" t="inlineStr">
@@ -19824,7 +19824,7 @@
       </c>
       <c r="N340" t="inlineStr">
         <is>
-          <t>Eliseo Daniel Velasquez Condori</t>
+          <t>PAZ VALDERBAMA, ALFREDO</t>
         </is>
       </c>
       <c r="O340" t="inlineStr">
@@ -19881,7 +19881,7 @@
       </c>
       <c r="N341" t="inlineStr">
         <is>
-          <t>Eliseo Daniel Velasquez Condori</t>
+          <t>PAZ VALDERBAMA, ALFREDO</t>
         </is>
       </c>
       <c r="O341" t="inlineStr">
@@ -19938,7 +19938,7 @@
       </c>
       <c r="N342" t="inlineStr">
         <is>
-          <t>Eliseo Daniel Velasquez Condori</t>
+          <t>PAZ VALDERBAMA, ALFREDO</t>
         </is>
       </c>
       <c r="O342" t="inlineStr">
@@ -19995,7 +19995,7 @@
       </c>
       <c r="N343" t="inlineStr">
         <is>
-          <t>Eliseo Daniel Velasquez Condori</t>
+          <t>PAZ VALDERBAMA, ALFREDO</t>
         </is>
       </c>
       <c r="O343" t="inlineStr">
@@ -20052,12 +20052,12 @@
       </c>
       <c r="N344" t="inlineStr">
         <is>
-          <t>Erech Ordoñez Ramos</t>
+          <t>MESTAS CHAVEZ, ROGER EDWAR</t>
         </is>
       </c>
       <c r="O344" t="inlineStr">
         <is>
-          <t>302</t>
+          <t>103</t>
         </is>
       </c>
     </row>
@@ -20109,12 +20109,12 @@
       </c>
       <c r="N345" t="inlineStr">
         <is>
-          <t>Erech Ordoñez Ramos</t>
+          <t>MESTAS CHAVEZ, ROGER EDWAR</t>
         </is>
       </c>
       <c r="O345" t="inlineStr">
         <is>
-          <t>302</t>
+          <t>103</t>
         </is>
       </c>
     </row>
@@ -20166,7 +20166,7 @@
       </c>
       <c r="N346" t="inlineStr">
         <is>
-          <t>Erech Ordoñez Ramos</t>
+          <t>MESTAS CHAVEZ, ROGER EDWAR</t>
         </is>
       </c>
       <c r="O346" t="inlineStr">
@@ -20223,7 +20223,7 @@
       </c>
       <c r="N347" t="inlineStr">
         <is>
-          <t>Erech Ordoñez Ramos</t>
+          <t>MESTAS CHAVEZ, ROGER EDWAR</t>
         </is>
       </c>
       <c r="O347" t="inlineStr">
@@ -20280,7 +20280,7 @@
       </c>
       <c r="N348" t="inlineStr">
         <is>
-          <t>Evelyn Perez Cervantes</t>
+          <t>VIZA HUAYLLASO, JUDID CARINA</t>
         </is>
       </c>
       <c r="O348" t="inlineStr">
@@ -20337,7 +20337,7 @@
       </c>
       <c r="N349" t="inlineStr">
         <is>
-          <t>Evelyn Perez Cervantes</t>
+          <t>VIZA HUAYLLASO, JUDID CARINA</t>
         </is>
       </c>
       <c r="O349" t="inlineStr">
@@ -20394,7 +20394,7 @@
       </c>
       <c r="N350" t="inlineStr">
         <is>
-          <t>Evelyn Perez Cervantes</t>
+          <t>VIZA HUAYLLASO, JUDID CARINA</t>
         </is>
       </c>
       <c r="O350" t="inlineStr">
@@ -20451,7 +20451,7 @@
       </c>
       <c r="N351" t="inlineStr">
         <is>
-          <t>Evelyn Perez Cervantes</t>
+          <t>VIZA HUAYLLASO, JUDID CARINA</t>
         </is>
       </c>
       <c r="O351" t="inlineStr">
@@ -20508,7 +20508,7 @@
       </c>
       <c r="N352" t="inlineStr">
         <is>
-          <t>Franklin Luis Antonio Cruz Gamero</t>
+          <t>OLANDA VELASQUEZ, BERTHA</t>
         </is>
       </c>
       <c r="O352" t="inlineStr">
@@ -20565,7 +20565,7 @@
       </c>
       <c r="N353" t="inlineStr">
         <is>
-          <t>Franklin Luis Antonio Cruz Gamero</t>
+          <t>OLANDA VELASQUEZ, BERTHA</t>
         </is>
       </c>
       <c r="O353" t="inlineStr">
@@ -20622,7 +20622,7 @@
       </c>
       <c r="N354" t="inlineStr">
         <is>
-          <t>Franklin Luis Antonio Cruz Gamero</t>
+          <t>OLANDA VELASQUEZ, BERTHA</t>
         </is>
       </c>
       <c r="O354" t="inlineStr">
@@ -20679,7 +20679,7 @@
       </c>
       <c r="N355" t="inlineStr">
         <is>
-          <t>Franklin Luis Antonio Cruz Gamero</t>
+          <t>OLANDA VELASQUEZ, BERTHA</t>
         </is>
       </c>
       <c r="O355" t="inlineStr">
@@ -20736,7 +20736,7 @@
       </c>
       <c r="N356" t="inlineStr">
         <is>
-          <t>Jesus Enrique Achire Quispe</t>
+          <t>AQUISE ESCOBEDO, SERGIO MOISES</t>
         </is>
       </c>
       <c r="O356" t="inlineStr">
@@ -20793,7 +20793,7 @@
       </c>
       <c r="N357" t="inlineStr">
         <is>
-          <t>Jesus Enrique Achire Quispe</t>
+          <t>AQUISE ESCOBEDO, SERGIO MOISES</t>
         </is>
       </c>
       <c r="O357" t="inlineStr">
@@ -20850,7 +20850,7 @@
       </c>
       <c r="N358" t="inlineStr">
         <is>
-          <t>Jesus Enrique Achire Quispe</t>
+          <t>AQUISE ESCOBEDO, SERGIO MOISES</t>
         </is>
       </c>
       <c r="O358" t="inlineStr">
@@ -20907,7 +20907,7 @@
       </c>
       <c r="N359" t="inlineStr">
         <is>
-          <t>Jesus Enrique Achire Quispe</t>
+          <t>AQUISE ESCOBEDO, SERGIO MOISES</t>
         </is>
       </c>
       <c r="O359" t="inlineStr">
@@ -20964,12 +20964,12 @@
       </c>
       <c r="N360" t="inlineStr">
         <is>
-          <t>Jorge Antonio Ihue Umire</t>
+          <t>ROQUE ROJI, ELIANA</t>
         </is>
       </c>
       <c r="O360" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>302</t>
         </is>
       </c>
     </row>
@@ -21021,12 +21021,12 @@
       </c>
       <c r="N361" t="inlineStr">
         <is>
-          <t>Jorge Antonio Ihue Umire</t>
+          <t>ROQUE ROJI, ELIANA</t>
         </is>
       </c>
       <c r="O361" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>302</t>
         </is>
       </c>
     </row>
@@ -21078,7 +21078,7 @@
       </c>
       <c r="N362" t="inlineStr">
         <is>
-          <t>Jorge Antonio Ihue Umire</t>
+          <t>ROQUE ROJI, ELIANA</t>
         </is>
       </c>
       <c r="O362" t="inlineStr">
@@ -21135,7 +21135,7 @@
       </c>
       <c r="N363" t="inlineStr">
         <is>
-          <t>Jorge Antonio Ihue Umire</t>
+          <t>ROQUE ROJI, ELIANA</t>
         </is>
       </c>
       <c r="O363" t="inlineStr">
@@ -21192,7 +21192,7 @@
       </c>
       <c r="N364" t="inlineStr">
         <is>
-          <t>Juan Carlos Zuñiga Torres</t>
+          <t>CONDORI ROCA, WILLY</t>
         </is>
       </c>
       <c r="O364" t="inlineStr">
@@ -21249,7 +21249,7 @@
       </c>
       <c r="N365" t="inlineStr">
         <is>
-          <t>Juan Carlos Zuñiga Torres</t>
+          <t>CONDORI ROCA, WILLY</t>
         </is>
       </c>
       <c r="O365" t="inlineStr">
@@ -21306,7 +21306,7 @@
       </c>
       <c r="N366" t="inlineStr">
         <is>
-          <t>Juan Carlos Zuñiga Torres</t>
+          <t>CONDORI ROCA, WILLY</t>
         </is>
       </c>
       <c r="O366" t="inlineStr">
@@ -21363,7 +21363,7 @@
       </c>
       <c r="N367" t="inlineStr">
         <is>
-          <t>Juan Carlos Zuñiga Torres</t>
+          <t>CONDORI ROCA, WILLY</t>
         </is>
       </c>
       <c r="O367" t="inlineStr">
@@ -21420,7 +21420,7 @@
       </c>
       <c r="N368" t="inlineStr">
         <is>
-          <t>Juan Carlos Zuñiga Torres</t>
+          <t>CONDORI ROCA, WILLY</t>
         </is>
       </c>
       <c r="O368" t="inlineStr">
@@ -21477,7 +21477,7 @@
       </c>
       <c r="N369" t="inlineStr">
         <is>
-          <t>Juan Carlos Zuñiga Torres</t>
+          <t>CONDORI ROCA, WILLY</t>
         </is>
       </c>
       <c r="O369" t="inlineStr">
@@ -21534,7 +21534,7 @@
       </c>
       <c r="N370" t="inlineStr">
         <is>
-          <t>Juan Carlos Zuñiga Torres</t>
+          <t>CONDORI ROCA, WILLY</t>
         </is>
       </c>
       <c r="O370" t="inlineStr">
@@ -21591,7 +21591,7 @@
       </c>
       <c r="N371" t="inlineStr">
         <is>
-          <t>Juan Carlos Zuñiga Torres</t>
+          <t>CONDORI ROCA, WILLY</t>
         </is>
       </c>
       <c r="O371" t="inlineStr">
@@ -21648,7 +21648,7 @@
       </c>
       <c r="N372" t="inlineStr">
         <is>
-          <t>Julio Raul Medina Cruz</t>
+          <t>MORALES MOYA, ADHA</t>
         </is>
       </c>
       <c r="O372" t="inlineStr">
@@ -21705,7 +21705,7 @@
       </c>
       <c r="N373" t="inlineStr">
         <is>
-          <t>Julio Raul Medina Cruz</t>
+          <t>MORALES MOYA, ADHA</t>
         </is>
       </c>
       <c r="O373" t="inlineStr">
@@ -21762,7 +21762,7 @@
       </c>
       <c r="N374" t="inlineStr">
         <is>
-          <t>Julio Raul Medina Cruz</t>
+          <t>MORALES MOYA, ADHA</t>
         </is>
       </c>
       <c r="O374" t="inlineStr">
@@ -21819,7 +21819,7 @@
       </c>
       <c r="N375" t="inlineStr">
         <is>
-          <t>Julio Raul Medina Cruz</t>
+          <t>MORALES MOYA, ADHA</t>
         </is>
       </c>
       <c r="O375" t="inlineStr">
@@ -21876,7 +21876,7 @@
       </c>
       <c r="N376" t="inlineStr">
         <is>
-          <t>Julio Raul Medina Cruz</t>
+          <t>MORALES MOYA, ADHA</t>
         </is>
       </c>
       <c r="O376" t="inlineStr">
@@ -21933,7 +21933,7 @@
       </c>
       <c r="N377" t="inlineStr">
         <is>
-          <t>Julio Raul Medina Cruz</t>
+          <t>MORALES MOYA, ADHA</t>
         </is>
       </c>
       <c r="O377" t="inlineStr">
@@ -21990,7 +21990,7 @@
       </c>
       <c r="N378" t="inlineStr">
         <is>
-          <t>Julio Raul Medina Cruz</t>
+          <t>MORALES MOYA, ADHA</t>
         </is>
       </c>
       <c r="O378" t="inlineStr">
@@ -22047,7 +22047,7 @@
       </c>
       <c r="N379" t="inlineStr">
         <is>
-          <t>Julio Raul Medina Cruz</t>
+          <t>MORALES MOYA, ADHA</t>
         </is>
       </c>
       <c r="O379" t="inlineStr">
@@ -22104,7 +22104,7 @@
       </c>
       <c r="N380" t="inlineStr">
         <is>
-          <t>Milton Raul Condori Fernandez</t>
+          <t>CABANA HANCO, WILSON RICARDO</t>
         </is>
       </c>
       <c r="O380" t="inlineStr">
@@ -22161,7 +22161,7 @@
       </c>
       <c r="N381" t="inlineStr">
         <is>
-          <t>Milton Raul Condori Fernandez</t>
+          <t>CABANA HANCO, WILSON RICARDO</t>
         </is>
       </c>
       <c r="O381" t="inlineStr">
@@ -22218,7 +22218,7 @@
       </c>
       <c r="N382" t="inlineStr">
         <is>
-          <t>Milton Raul Condori Fernandez</t>
+          <t>CABANA HANCO, WILSON RICARDO</t>
         </is>
       </c>
       <c r="O382" t="inlineStr">
@@ -22275,7 +22275,7 @@
       </c>
       <c r="N383" t="inlineStr">
         <is>
-          <t>Milton Raul Condori Fernandez</t>
+          <t>CABANA HANCO, WILSON RICARDO</t>
         </is>
       </c>
       <c r="O383" t="inlineStr">
@@ -22332,12 +22332,12 @@
       </c>
       <c r="N384" t="inlineStr">
         <is>
-          <t>Pablo Cesar Calcina Ccori</t>
+          <t>VELAZCO COACYAHUILLCA, YSIDRO</t>
         </is>
       </c>
       <c r="O384" t="inlineStr">
         <is>
-          <t>303</t>
+          <t>302</t>
         </is>
       </c>
     </row>
@@ -22389,12 +22389,12 @@
       </c>
       <c r="N385" t="inlineStr">
         <is>
-          <t>Pablo Cesar Calcina Ccori</t>
+          <t>VELAZCO COACYAHUILLCA, YSIDRO</t>
         </is>
       </c>
       <c r="O385" t="inlineStr">
         <is>
-          <t>303</t>
+          <t>302</t>
         </is>
       </c>
     </row>
@@ -22446,7 +22446,7 @@
       </c>
       <c r="N386" t="inlineStr">
         <is>
-          <t>Pablo Cesar Calcina Ccori</t>
+          <t>VELAZCO COACYAHUILLCA, YSIDRO</t>
         </is>
       </c>
       <c r="O386" t="inlineStr">
@@ -22503,7 +22503,7 @@
       </c>
       <c r="N387" t="inlineStr">
         <is>
-          <t>Pablo Cesar Calcina Ccori</t>
+          <t>VELAZCO COACYAHUILLCA, YSIDRO</t>
         </is>
       </c>
       <c r="O387" t="inlineStr">
@@ -22560,7 +22560,7 @@
       </c>
       <c r="N388" t="inlineStr">
         <is>
-          <t>Percy Antonio Ticona Centeno</t>
+          <t>GUTIERREZ RODRIGUEZ, EDDY AUGUSTO</t>
         </is>
       </c>
       <c r="O388" t="inlineStr">
@@ -22617,7 +22617,7 @@
       </c>
       <c r="N389" t="inlineStr">
         <is>
-          <t>Percy Antonio Ticona Centeno</t>
+          <t>GUTIERREZ RODRIGUEZ, EDDY AUGUSTO</t>
         </is>
       </c>
       <c r="O389" t="inlineStr">
@@ -22674,7 +22674,7 @@
       </c>
       <c r="N390" t="inlineStr">
         <is>
-          <t>Percy Antonio Ticona Centeno</t>
+          <t>GUTIERREZ RODRIGUEZ, EDDY AUGUSTO</t>
         </is>
       </c>
       <c r="O390" t="inlineStr">
@@ -22731,7 +22731,7 @@
       </c>
       <c r="N391" t="inlineStr">
         <is>
-          <t>Percy Antonio Ticona Centeno</t>
+          <t>GUTIERREZ RODRIGUEZ, EDDY AUGUSTO</t>
         </is>
       </c>
       <c r="O391" t="inlineStr">
@@ -22788,7 +22788,7 @@
       </c>
       <c r="N392" t="inlineStr">
         <is>
-          <t>Reynaldo Ricardo Quispe Infantes</t>
+          <t>VELASQUEZ CONDORI, ELISEO DANIEL</t>
         </is>
       </c>
       <c r="O392" t="inlineStr">
@@ -22845,7 +22845,7 @@
       </c>
       <c r="N393" t="inlineStr">
         <is>
-          <t>Reynaldo Ricardo Quispe Infantes</t>
+          <t>VELASQUEZ CONDORI, ELISEO DANIEL</t>
         </is>
       </c>
       <c r="O393" t="inlineStr">
@@ -22902,7 +22902,7 @@
       </c>
       <c r="N394" t="inlineStr">
         <is>
-          <t>Reynaldo Ricardo Quispe Infantes</t>
+          <t>VELASQUEZ CONDORI, ELISEO DANIEL</t>
         </is>
       </c>
       <c r="O394" t="inlineStr">
@@ -22959,7 +22959,7 @@
       </c>
       <c r="N395" t="inlineStr">
         <is>
-          <t>Reynaldo Ricardo Quispe Infantes</t>
+          <t>VELASQUEZ CONDORI, ELISEO DANIEL</t>
         </is>
       </c>
       <c r="O395" t="inlineStr">
@@ -23016,7 +23016,7 @@
       </c>
       <c r="N396" t="inlineStr">
         <is>
-          <t>Alvaro Henry Mamani Aliaga</t>
+          <t>ZEBALLOS RAMIREZ, PIAR ELIZABETH</t>
         </is>
       </c>
       <c r="O396" t="inlineStr">
@@ -23073,7 +23073,7 @@
       </c>
       <c r="N397" t="inlineStr">
         <is>
-          <t>Alvaro Henry Mamani Aliaga</t>
+          <t>ZEBALLOS RAMIREZ, PIAR ELIZABETH</t>
         </is>
       </c>
       <c r="O397" t="inlineStr">
@@ -23130,7 +23130,7 @@
       </c>
       <c r="N398" t="inlineStr">
         <is>
-          <t>Alvaro Henry Mamani Aliaga</t>
+          <t>ZEBALLOS RAMIREZ, PIAR ELIZABETH</t>
         </is>
       </c>
       <c r="O398" t="inlineStr">
@@ -23187,7 +23187,7 @@
       </c>
       <c r="N399" t="inlineStr">
         <is>
-          <t>Alvaro Henry Mamani Aliaga</t>
+          <t>ZEBALLOS RAMIREZ, PIAR ELIZABETH</t>
         </is>
       </c>
       <c r="O399" t="inlineStr">
@@ -23244,12 +23244,12 @@
       </c>
       <c r="N400" t="inlineStr">
         <is>
-          <t>Ana Maria Cuadros Valdivia</t>
+          <t>MESTAS VALDIVIA, JOSE CARLOS</t>
         </is>
       </c>
       <c r="O400" t="inlineStr">
         <is>
-          <t>302</t>
+          <t>303</t>
         </is>
       </c>
     </row>
@@ -23301,12 +23301,12 @@
       </c>
       <c r="N401" t="inlineStr">
         <is>
-          <t>Ana Maria Cuadros Valdivia</t>
+          <t>MESTAS VALDIVIA, JOSE CARLOS</t>
         </is>
       </c>
       <c r="O401" t="inlineStr">
         <is>
-          <t>302</t>
+          <t>303</t>
         </is>
       </c>
     </row>
@@ -23358,7 +23358,7 @@
       </c>
       <c r="N402" t="inlineStr">
         <is>
-          <t>Ana Maria Cuadros Valdivia</t>
+          <t>MESTAS VALDIVIA, JOSE CARLOS</t>
         </is>
       </c>
       <c r="O402" t="inlineStr">
@@ -23415,7 +23415,7 @@
       </c>
       <c r="N403" t="inlineStr">
         <is>
-          <t>Ana Maria Cuadros Valdivia</t>
+          <t>MESTAS VALDIVIA, JOSE CARLOS</t>
         </is>
       </c>
       <c r="O403" t="inlineStr">
@@ -23472,7 +23472,7 @@
       </c>
       <c r="N404" t="inlineStr">
         <is>
-          <t>Edgar Sarmiento Calisaya</t>
+          <t>TORRES GONZALES, SELENE BELEN</t>
         </is>
       </c>
       <c r="O404" t="inlineStr">
@@ -23529,7 +23529,7 @@
       </c>
       <c r="N405" t="inlineStr">
         <is>
-          <t>Edgar Sarmiento Calisaya</t>
+          <t>TORRES GONZALES, SELENE BELEN</t>
         </is>
       </c>
       <c r="O405" t="inlineStr">
@@ -23586,7 +23586,7 @@
       </c>
       <c r="N406" t="inlineStr">
         <is>
-          <t>Edgar Sarmiento Calisaya</t>
+          <t>TORRES GONZALES, SELENE BELEN</t>
         </is>
       </c>
       <c r="O406" t="inlineStr">
@@ -23643,7 +23643,7 @@
       </c>
       <c r="N407" t="inlineStr">
         <is>
-          <t>Edgar Sarmiento Calisaya</t>
+          <t>TORRES GONZALES, SELENE BELEN</t>
         </is>
       </c>
       <c r="O407" t="inlineStr">
@@ -23700,7 +23700,7 @@
       </c>
       <c r="N408" t="inlineStr">
         <is>
-          <t>Edward Hinojosa Cardenas</t>
+          <t>NUÑEZ GUZMAN, ROXANA LUISA</t>
         </is>
       </c>
       <c r="O408" t="inlineStr">
@@ -23757,7 +23757,7 @@
       </c>
       <c r="N409" t="inlineStr">
         <is>
-          <t>Edward Hinojosa Cardenas</t>
+          <t>NUÑEZ GUZMAN, ROXANA LUISA</t>
         </is>
       </c>
       <c r="O409" t="inlineStr">
@@ -23814,7 +23814,7 @@
       </c>
       <c r="N410" t="inlineStr">
         <is>
-          <t>Franci Suni Lopez</t>
+          <t>CHIRINOS TOVAR, KARINA ROGELIO</t>
         </is>
       </c>
       <c r="O410" t="inlineStr">
@@ -23871,7 +23871,7 @@
       </c>
       <c r="N411" t="inlineStr">
         <is>
-          <t>Franci Suni Lopez</t>
+          <t>CHIRINOS TOVAR, KARINA ROGELIO</t>
         </is>
       </c>
       <c r="O411" t="inlineStr">
@@ -23928,7 +23928,7 @@
       </c>
       <c r="N412" t="inlineStr">
         <is>
-          <t>Franci Suni Lopez</t>
+          <t>CHIRINOS TOVAR, KARINA ROGELIO</t>
         </is>
       </c>
       <c r="O412" t="inlineStr">
@@ -23985,7 +23985,7 @@
       </c>
       <c r="N413" t="inlineStr">
         <is>
-          <t>Franci Suni Lopez</t>
+          <t>CHIRINOS TOVAR, KARINA ROGELIO</t>
         </is>
       </c>
       <c r="O413" t="inlineStr">
@@ -24032,22 +24032,22 @@
       </c>
       <c r="L414" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>17:50</t>
         </is>
       </c>
       <c r="M414" t="inlineStr">
         <is>
-          <t>16:50</t>
+          <t>18:40</t>
         </is>
       </c>
       <c r="N414" t="inlineStr">
         <is>
-          <t>Jesus Heraclio Zuñiga Cueva</t>
+          <t>CACERES CAERO, FELIX</t>
         </is>
       </c>
       <c r="O414" t="inlineStr">
         <is>
-          <t>303</t>
+          <t>103</t>
         </is>
       </c>
     </row>
@@ -24089,22 +24089,22 @@
       </c>
       <c r="L415" t="inlineStr">
         <is>
-          <t>16:50</t>
+          <t>18:40</t>
         </is>
       </c>
       <c r="M415" t="inlineStr">
         <is>
-          <t>17:40</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="N415" t="inlineStr">
         <is>
-          <t>Jesus Heraclio Zuñiga Cueva</t>
+          <t>CACERES CAERO, FELIX</t>
         </is>
       </c>
       <c r="O415" t="inlineStr">
         <is>
-          <t>303</t>
+          <t>103</t>
         </is>
       </c>
     </row>
@@ -24156,7 +24156,7 @@
       </c>
       <c r="N416" t="inlineStr">
         <is>
-          <t>Jhon Franky Bernedo Gonzales</t>
+          <t>BUSTAMANTE LOPEZ, TEIS LARISA</t>
         </is>
       </c>
       <c r="O416" t="inlineStr">
@@ -24213,7 +24213,7 @@
       </c>
       <c r="N417" t="inlineStr">
         <is>
-          <t>Jhon Franky Bernedo Gonzales</t>
+          <t>BUSTAMANTE LOPEZ, TEIS LARISA</t>
         </is>
       </c>
       <c r="O417" t="inlineStr">
@@ -24270,7 +24270,7 @@
       </c>
       <c r="N418" t="inlineStr">
         <is>
-          <t>Jhon Franky Bernedo Gonzales</t>
+          <t>BUSTAMANTE LOPEZ, TEIS LARISA</t>
         </is>
       </c>
       <c r="O418" t="inlineStr">
@@ -24327,7 +24327,7 @@
       </c>
       <c r="N419" t="inlineStr">
         <is>
-          <t>Jhon Franky Bernedo Gonzales</t>
+          <t>BUSTAMANTE LOPEZ, TEIS LARISA</t>
         </is>
       </c>
       <c r="O419" t="inlineStr">
@@ -24374,22 +24374,22 @@
       </c>
       <c r="L420" t="inlineStr">
         <is>
-          <t>17:50</t>
+          <t>19:40</t>
         </is>
       </c>
       <c r="M420" t="inlineStr">
         <is>
-          <t>18:40</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="N420" t="inlineStr">
         <is>
-          <t>Juan Carlos Gutierrez Caceres</t>
+          <t>CORDOVA MARTINEZ, MARIA DEL CARMEN</t>
         </is>
       </c>
       <c r="O420" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>102</t>
         </is>
       </c>
     </row>
@@ -24431,22 +24431,22 @@
       </c>
       <c r="L421" t="inlineStr">
         <is>
-          <t>18:40</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="M421" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>21:20</t>
         </is>
       </c>
       <c r="N421" t="inlineStr">
         <is>
-          <t>Juan Carlos Gutierrez Caceres</t>
+          <t>CORDOVA MARTINEZ, MARIA DEL CARMEN</t>
         </is>
       </c>
       <c r="O421" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>102</t>
         </is>
       </c>
     </row>
@@ -24498,7 +24498,7 @@
       </c>
       <c r="N422" t="inlineStr">
         <is>
-          <t>Judith Hayde Cruz Torres</t>
+          <t>QUISPE MELON, MILAGROS</t>
         </is>
       </c>
       <c r="O422" t="inlineStr">
@@ -24555,7 +24555,7 @@
       </c>
       <c r="N423" t="inlineStr">
         <is>
-          <t>Judith Hayde Cruz Torres</t>
+          <t>QUISPE MELON, MILAGROS</t>
         </is>
       </c>
       <c r="O423" t="inlineStr">
@@ -24612,7 +24612,7 @@
       </c>
       <c r="N424" t="inlineStr">
         <is>
-          <t>Judith Hayde Cruz Torres</t>
+          <t>QUISPE MELON, MILAGROS</t>
         </is>
       </c>
       <c r="O424" t="inlineStr">
@@ -24669,7 +24669,7 @@
       </c>
       <c r="N425" t="inlineStr">
         <is>
-          <t>Judith Hayde Cruz Torres</t>
+          <t>QUISPE MELON, MILAGROS</t>
         </is>
       </c>
       <c r="O425" t="inlineStr">
@@ -24703,7 +24703,7 @@
       </c>
       <c r="I426" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>V</t>
         </is>
       </c>
       <c r="J426" t="inlineStr">
@@ -24716,17 +24716,17 @@
       </c>
       <c r="L426" t="inlineStr">
         <is>
-          <t>19:40</t>
+          <t>12:20</t>
         </is>
       </c>
       <c r="M426" t="inlineStr">
         <is>
-          <t>20:30</t>
+          <t>13:10</t>
         </is>
       </c>
       <c r="N426" t="inlineStr">
         <is>
-          <t>Lucy Angela Delgado Barra</t>
+          <t>CAHUANA MONTERO, GARY MARY</t>
         </is>
       </c>
       <c r="O426" t="inlineStr">
@@ -24760,7 +24760,7 @@
       </c>
       <c r="I427" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>V</t>
         </is>
       </c>
       <c r="J427" t="inlineStr">
@@ -24773,17 +24773,17 @@
       </c>
       <c r="L427" t="inlineStr">
         <is>
-          <t>20:30</t>
+          <t>13:10</t>
         </is>
       </c>
       <c r="M427" t="inlineStr">
         <is>
-          <t>21:20</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="N427" t="inlineStr">
         <is>
-          <t>Lucy Angela Delgado Barra</t>
+          <t>CAHUANA MONTERO, GARY MARY</t>
         </is>
       </c>
       <c r="O427" t="inlineStr">
